--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF02C931-FB7A-49BB-BD06-F7040D4423E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A73231A-5EB5-4F6E-9E84-2A2E243D0838}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab13'!$A$1:$C$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab13'!$A$1:$H$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab13'!$A$1:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab13'!$A$1:$H$103</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
   <si>
     <t>Tableau 13 : Infrastructure de communications</t>
   </si>
@@ -55,7 +67,7 @@
     <t>Pourcentage d'habitants vivant dans une zone couverte par la technologie mobile 4G, 2020</t>
   </si>
   <si>
-    <t>Accès à Internet (% de la population âgée de 15 ans et plus), 2016-18</t>
+    <t>Accès à l'Internet (% de la population âgée de 15 ans et plus), 2016-18</t>
   </si>
   <si>
     <t>AGO</t>
@@ -430,7 +442,7 @@
     <t>CEEAC</t>
   </si>
   <si>
-    <t>CÉDÉAO</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
@@ -508,9 +520,6 @@
     <t>RDM, États fragiles</t>
   </si>
   <si>
-    <t>États extrêmement fragiles</t>
-  </si>
-  <si>
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
@@ -518,9 +527,6 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
-  </si>
-  <si>
-    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (récupéré le 19/11/2021), GSMA Intelligence (mise à jour en juin 2020), Gallup World Poll (consulté le 15 décembre 2019).</t>
@@ -544,26 +550,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -853,180 +853,164 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1064,7 +1048,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1076,7 +1060,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1123,6 +1107,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1158,6 +1159,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1309,26 +1327,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF07C8AE-1837-40DE-A950-3AF2759D4419}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="54" customWidth="1"/>
     <col min="4" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" style="58" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" style="52" customWidth="1"/>
     <col min="9" max="10" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1438,194 +1455,194 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>0.71123400000000003</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>47</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>93.527299999999997</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="F5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="20">
         <v>30</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>46.540019999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>0.273345</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>29</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>74.493799999999993</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>0.63173199999999996</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>64.047600000000003</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>5484</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>75</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>20.128050000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>6.2684599999999993E-2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>13.7822</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>47.781100000000002</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>7.0326799999999995E-2</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>31.8459</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>9614</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>79.09</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>16.457840000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>0.23725199999999999</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>10</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>48.6509</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>0.26605699999999999</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>17.669699999999999</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>78503</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>25</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>17.348590000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>2.5310600000000001</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>51</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>113.194</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>5.6001700000000003</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>66.215800000000002</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="H9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="20">
         <v>75</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>54.700890000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>2.3996900000000001</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>56.167400000000001</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>165.6</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>3.45763</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>102.22</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>351259</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>95</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>48.762569999999997</v>
       </c>
     </row>
@@ -1633,7 +1650,7 @@
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="16">
@@ -1662,162 +1679,162 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>1.40632</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>27.055499999999999</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>90.1023</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>1.8144499999999999</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <v>51.6875</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>116927</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>50</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>31.997789999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="30">
-        <v>1.08770773011448</v>
-      </c>
-      <c r="D13" s="30">
-        <v>30.844254924653701</v>
-      </c>
-      <c r="E13" s="30">
-        <v>97.312939482316693</v>
-      </c>
-      <c r="F13" s="30">
-        <v>1.6226931654994701</v>
-      </c>
-      <c r="G13" s="31">
-        <v>55.723826979325999</v>
-      </c>
-      <c r="H13" s="32">
-        <v>154323.928889284</v>
-      </c>
-      <c r="I13" s="30">
-        <v>65.143892746536295</v>
-      </c>
-      <c r="J13" s="31">
-        <v>33.954502771513802</v>
+      <c r="C13" s="29">
+        <v>1.079625825295</v>
+      </c>
+      <c r="D13" s="29">
+        <v>30.7070642878063</v>
+      </c>
+      <c r="E13" s="29">
+        <v>96.967358477121294</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1.6138477427629701</v>
+      </c>
+      <c r="G13" s="30">
+        <v>55.494865292927301</v>
+      </c>
+      <c r="H13" s="31">
+        <v>152627.25705615501</v>
+      </c>
+      <c r="I13" s="29">
+        <v>64.960921736152997</v>
+      </c>
+      <c r="J13" s="30">
+        <v>33.866268241319297</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>3.5211300000000001E-2</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>2.6607500000000002</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>56.649700000000003</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>0.18156900000000001</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21">
         <v>11.1435</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>6163</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>25</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>16.298079999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>7.4436100000000005E-2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>23.202999999999999</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>82.703699999999998</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>3.3096199999999998</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="21">
         <v>14.6295</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>20280</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>75</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>28.949380000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>1.30294E-2</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>4.3392499999999998</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>33.619199999999999</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="F16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="21">
         <v>5.0293099999999997</v>
       </c>
-      <c r="H16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="H16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="20">
         <v>17.920000000000002</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>8.2267499999999991</v>
       </c>
     </row>
@@ -1825,7 +1842,7 @@
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="12">
@@ -1857,7 +1874,7 @@
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="12">
@@ -1889,7 +1906,7 @@
       <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="16">
@@ -1921,7 +1938,7 @@
       <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="12">
@@ -1953,7 +1970,7 @@
       <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="12">
@@ -1982,386 +1999,386 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>0.73781699999999995</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>29.9312</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>77.078100000000006</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>2.2245400000000002</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="21">
         <v>34.343600000000002</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>2317</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="22" t="s">
+      <c r="I22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="30">
-        <v>4.047421683908E-2</v>
-      </c>
-      <c r="D23" s="30">
-        <v>11.2114689168104</v>
-      </c>
-      <c r="E23" s="30">
-        <v>54.154820354878197</v>
-      </c>
-      <c r="F23" s="30">
-        <v>1.63423194737051</v>
-      </c>
-      <c r="G23" s="31">
-        <v>16.878093500629099</v>
-      </c>
-      <c r="H23" s="32">
-        <v>26752.8770587978</v>
-      </c>
-      <c r="I23" s="30">
-        <v>38.689617715167103</v>
-      </c>
-      <c r="J23" s="31">
-        <v>20.0810220910775</v>
+      <c r="C23" s="29">
+        <v>4.0216391916450003E-2</v>
+      </c>
+      <c r="D23" s="29">
+        <v>11.1473993005268</v>
+      </c>
+      <c r="E23" s="29">
+        <v>53.931592347181201</v>
+      </c>
+      <c r="F23" s="29">
+        <v>1.61667554011295</v>
+      </c>
+      <c r="G23" s="30">
+        <v>16.904047513984601</v>
+      </c>
+      <c r="H23" s="31">
+        <v>26831.6676129425</v>
+      </c>
+      <c r="I23" s="29">
+        <v>38.4420105179953</v>
+      </c>
+      <c r="J23" s="30">
+        <v>20.0355308870149</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>0.183943</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>8.4781700000000004</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>67.602199999999996</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>1.18018</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <v>9.4644899999999996</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>4600</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="20">
         <v>65</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>32.669620000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>2.6600700000000002</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>55.681399999999996</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>42.510599999999997</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>3.81148</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>23.624600000000001</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="H25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="20">
         <v>10.37</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="20">
         <v>2.9300699999999999E-2</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>1.30891</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>20.364000000000001</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="22" t="s">
+      <c r="F26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="20">
         <v>5.9163599999999997E-2</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>18.618099999999998</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>37.2181</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="F27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="20">
         <v>69.94</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>9.9774370000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="20">
         <v>0.72286300000000003</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="20">
         <v>22.565100000000001</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>103.76900000000001</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>0.13389499999999999</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="21">
         <v>41.076500000000003</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <v>6719490</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <v>69.56</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>50.82938</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="20">
         <v>0.103612</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="20">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>34.142800000000001</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="21">
+      <c r="F29" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="20">
         <v>66.989999999999995</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>12.790419999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="20">
         <v>21.638500000000001</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <v>63.999899999999997</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>147.01499999999999</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>36.127600000000001</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="21">
         <v>87.385000000000005</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <v>101657</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="20">
         <v>90</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>64.126570000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="20">
         <v>6.0974E-2</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="20">
         <v>21.767600000000002</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>76.491500000000002</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>9.0227600000000005E-2</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>42.303899999999999</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>37065</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="20">
         <v>99</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>12.628209999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="20">
         <v>20.2851</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="20">
         <v>58.769799999999996</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>198.15199999999999</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>20.587499999999999</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21">
         <v>91.9756</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>14037</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="20">
         <v>75.64</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="20">
         <v>0.67173099999999997</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="20">
         <v>2.0040499999999999</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>48.796399999999998</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="21">
+      <c r="F33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="20">
         <v>75</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <v>17.94828</v>
       </c>
     </row>
@@ -2398,138 +2415,138 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="20">
         <v>7.4681499999999998E-2</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="20">
         <v>30.8703</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>77.111999999999995</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>0.321961</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21">
         <v>37.934800000000003</v>
       </c>
-      <c r="H35" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="21">
+      <c r="H35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="20">
         <v>34</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="20">
         <v>1.5293600000000001</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="20">
         <v>25</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>82.208200000000005</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>0.131519</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>9.7916100000000004</v>
       </c>
-      <c r="H36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="21">
+      <c r="H36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="20">
         <v>28</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <v>19.938009999999998</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="20">
         <v>2.75667E-2</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="20">
         <v>23.706499999999998</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>57.365600000000001</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>0.172787</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="21">
+      <c r="G37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="20">
         <v>70</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <v>30.846520000000002</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="30">
-        <v>0.47974065764141</v>
-      </c>
-      <c r="D38" s="30">
-        <v>20.666697685421202</v>
-      </c>
-      <c r="E38" s="30">
-        <v>61.367445529322701</v>
-      </c>
-      <c r="F38" s="30">
-        <v>0.42082509103081001</v>
-      </c>
-      <c r="G38" s="31">
-        <v>28.304812679974599</v>
-      </c>
-      <c r="H38" s="32">
-        <v>4509117.1388056399</v>
-      </c>
-      <c r="I38" s="30">
-        <v>59.986038389336301</v>
-      </c>
-      <c r="J38" s="31">
-        <v>21.655142054495599</v>
+      <c r="C38" s="29">
+        <v>0.48509359243179001</v>
+      </c>
+      <c r="D38" s="29">
+        <v>20.662949917864299</v>
+      </c>
+      <c r="E38" s="29">
+        <v>61.211285627232698</v>
+      </c>
+      <c r="F38" s="29">
+        <v>0.42796528588651001</v>
+      </c>
+      <c r="G38" s="30">
+        <v>28.1278900423059</v>
+      </c>
+      <c r="H38" s="31">
+        <v>4487866.8187347297</v>
+      </c>
+      <c r="I38" s="29">
+        <v>59.801749855731799</v>
+      </c>
+      <c r="J38" s="30">
+        <v>21.4206268968362</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="12">
@@ -2558,34 +2575,34 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="20">
         <v>6.6851500000000001</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>57.282899999999998</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>94.971699999999998</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>8.7265700000000006</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21">
         <v>59.342500000000001</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <v>1545030</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="20">
         <v>84.91</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="21">
         <v>36.668050000000001</v>
       </c>
     </row>
@@ -2593,7 +2610,7 @@
       <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="12">
@@ -2625,7 +2642,7 @@
       <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C42" s="12">
@@ -2654,258 +2671,258 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="20">
         <v>4.3092899999999998</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="20">
         <v>74.376300000000001</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="20">
         <v>127.953</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>5.6332500000000003</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21">
         <v>64.919300000000007</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <v>1970050</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="20">
         <v>98</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="21">
         <v>47.104289999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44" s="20">
         <v>8.7711000000000006</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="20">
         <v>66.7</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>126.30500000000001</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>12.4345</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21">
         <v>77.791200000000003</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="22">
         <v>453224</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="20">
         <v>90</v>
       </c>
-      <c r="J44" s="22">
+      <c r="J44" s="21">
         <v>50.508940000000003</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="30">
-        <v>6.2954176471777501</v>
-      </c>
-      <c r="D45" s="30">
-        <v>56.862677138678499</v>
-      </c>
-      <c r="E45" s="30">
-        <v>105.84448718177001</v>
-      </c>
-      <c r="F45" s="30">
-        <v>8.6503614457027904</v>
-      </c>
-      <c r="G45" s="31">
-        <v>69.435355514412294</v>
-      </c>
-      <c r="H45" s="32">
-        <v>1374487.5094448901</v>
-      </c>
-      <c r="I45" s="30">
-        <v>86.855661141829302</v>
-      </c>
-      <c r="J45" s="31">
-        <v>44.111947300715102</v>
+      <c r="C45" s="29">
+        <v>6.31499730829551</v>
+      </c>
+      <c r="D45" s="29">
+        <v>56.951169799869703</v>
+      </c>
+      <c r="E45" s="29">
+        <v>105.597438664915</v>
+      </c>
+      <c r="F45" s="29">
+        <v>8.6630086686973193</v>
+      </c>
+      <c r="G45" s="30">
+        <v>69.155182289599097</v>
+      </c>
+      <c r="H45" s="31">
+        <v>1378007.7910981399</v>
+      </c>
+      <c r="I45" s="29">
+        <v>86.814005211101502</v>
+      </c>
+      <c r="J45" s="30">
+        <v>43.896733695831898</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>0.23538400000000001</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>20</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>87.701999999999998</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>0.30435200000000001</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="21">
         <v>21.457999999999998</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="22">
         <v>76206.100000000006</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="20">
         <v>45</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="21">
         <v>18.788419999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="20">
         <v>6.9959400000000005E-2</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>16</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>100.212</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>0.37050100000000002</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>31.6966</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <v>44190</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="20">
         <v>17.920000000000002</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="21">
         <v>18.44022</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="12">
         <v>2.8793600000000001</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="12">
         <v>61.943399999999997</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="12">
         <v>108.318</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="12">
         <v>10.457800000000001</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G48" s="13">
         <v>76.538700000000006</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="14">
         <v>13000</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="12">
         <v>60.84</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C49" s="20">
         <v>0.70172900000000005</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="20">
         <v>36.289000000000001</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>145.34100000000001</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>1.05661</v>
       </c>
-      <c r="G49" s="22">
+      <c r="G49" s="21">
         <v>66.187600000000003</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="22">
         <v>88288</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="20">
         <v>77.88</v>
       </c>
-      <c r="J49" s="22">
+      <c r="J49" s="21">
         <v>28.312000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="20">
         <v>0.19442200000000001</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="20">
         <v>19.836500000000001</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>133.97200000000001</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="21">
+      <c r="F50" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="20">
         <v>54.15</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="21">
         <v>34.044640000000001</v>
       </c>
     </row>
@@ -2942,162 +2959,162 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="20">
         <v>9.3391199999999994E-3</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="20">
         <v>18</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>100.797</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="22">
+      <c r="F52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="21">
         <v>23.165500000000002</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>42000</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="20">
         <v>17.920000000000002</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="21">
         <v>20.45448</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="21">
+      <c r="C53" s="20">
         <v>6.4237199999999994E-2</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="20">
         <v>3.9305099999999999</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="20">
         <v>82.792599999999993</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="22">
+      <c r="F53" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="21">
         <v>36.709499999999998</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>5756</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="20">
         <v>46</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="20">
         <v>0.19139900000000001</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="20">
         <v>7.9844799999999996</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>56.569000000000003</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="21">
+      <c r="F54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="20">
         <v>48.94</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="21">
         <v>20.783860000000001</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="20">
         <v>0.63397400000000004</v>
       </c>
-      <c r="D55" s="21">
-        <v>13</v>
-      </c>
-      <c r="E55" s="21">
+      <c r="D55" s="20">
+        <v>13</v>
+      </c>
+      <c r="E55" s="20">
         <v>116.621</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="20">
         <v>1.23227</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="21">
         <v>35.072400000000002</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="22">
         <v>33850</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="20">
         <v>50</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="21">
         <v>21.089400000000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="20">
         <v>4.0041899999999998E-2</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="20">
         <v>10.224299999999999</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="20">
         <v>40.638500000000001</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="21">
+      <c r="F56" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="20">
         <v>14.93</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="21">
         <v>9.2337070000000008</v>
       </c>
     </row>
@@ -3105,7 +3122,7 @@
       <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>118</v>
       </c>
       <c r="C57" s="12">
@@ -3134,66 +3151,66 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="20">
         <v>0.81882999999999995</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>46</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>109.721</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="20">
         <v>1.2738499999999999</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G58" s="21">
         <v>54.245699999999999</v>
       </c>
-      <c r="H58" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="21">
+      <c r="H58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="20">
         <v>75</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="21">
         <v>31.423069999999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="21">
+      <c r="C59" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="20">
         <v>9</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="20">
         <v>86.133600000000001</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="20">
         <v>4.3951200000000003E-2</v>
       </c>
-      <c r="G59" s="22">
+      <c r="G59" s="21">
         <v>14.7454</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="22">
         <v>26301</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="20">
         <v>75.010000000000005</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="21">
         <v>13.556100000000001</v>
       </c>
     </row>
@@ -3230,1371 +3247,1332 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="30">
-        <v>0.18061398839612999</v>
-      </c>
-      <c r="D61" s="30">
-        <v>33.321562645597403</v>
-      </c>
-      <c r="E61" s="30">
-        <v>97.642146664971506</v>
-      </c>
-      <c r="F61" s="30">
-        <v>0.39019854570597001</v>
-      </c>
-      <c r="G61" s="31">
-        <v>42.891910810737599</v>
-      </c>
-      <c r="H61" s="32">
-        <v>287458.30307133298</v>
-      </c>
-      <c r="I61" s="30">
-        <v>59.0283227699774</v>
-      </c>
-      <c r="J61" s="31">
-        <v>27.3613187738077</v>
+      <c r="C61" s="29">
+        <v>0.18112029529014001</v>
+      </c>
+      <c r="D61" s="29">
+        <v>33.246303212165202</v>
+      </c>
+      <c r="E61" s="29">
+        <v>97.7646533982726</v>
+      </c>
+      <c r="F61" s="29">
+        <v>0.39244604874869998</v>
+      </c>
+      <c r="G61" s="30">
+        <v>42.947852152094597</v>
+      </c>
+      <c r="H61" s="31">
+        <v>286497.923517188</v>
+      </c>
+      <c r="I61" s="29">
+        <v>59.001566578517</v>
+      </c>
+      <c r="J61" s="30">
+        <v>27.345011031190701</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="35"/>
-      <c r="B62" s="36" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="37">
-        <v>1.3260608839632499</v>
-      </c>
-      <c r="D62" s="37">
-        <v>30.324441998351801</v>
-      </c>
-      <c r="E62" s="37">
-        <v>83.121400339380799</v>
-      </c>
-      <c r="F62" s="37">
-        <v>2.3341889998512602</v>
-      </c>
-      <c r="G62" s="38">
-        <v>43.873769221788699</v>
-      </c>
-      <c r="H62" s="39">
-        <v>804883.49922373798</v>
-      </c>
-      <c r="I62" s="37">
-        <v>61.994722396635403</v>
-      </c>
-      <c r="J62" s="38">
-        <v>28.498466822992501</v>
+      <c r="C62" s="36">
+        <v>1.3345380037666099</v>
+      </c>
+      <c r="D62" s="36">
+        <v>30.3182176918274</v>
+      </c>
+      <c r="E62" s="36">
+        <v>83.037479179638893</v>
+      </c>
+      <c r="F62" s="36">
+        <v>2.3550481510218102</v>
+      </c>
+      <c r="G62" s="37">
+        <v>43.798718646985201</v>
+      </c>
+      <c r="H62" s="38">
+        <v>790516.80471383396</v>
+      </c>
+      <c r="I62" s="36">
+        <v>61.864831693546698</v>
+      </c>
+      <c r="J62" s="37">
+        <v>28.402395358425</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="35"/>
-      <c r="B63" s="36" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="37">
-        <v>16.567567411308598</v>
-      </c>
-      <c r="D63" s="37">
-        <v>55.480863653749303</v>
-      </c>
-      <c r="E63" s="37">
-        <v>111.836681352339</v>
-      </c>
-      <c r="F63" s="37">
-        <v>14.192881548846801</v>
-      </c>
-      <c r="G63" s="38">
-        <v>83.226112641203997</v>
-      </c>
-      <c r="H63" s="39">
-        <v>22452036.812338199</v>
-      </c>
-      <c r="I63" s="37">
-        <v>93.794906183229799</v>
-      </c>
-      <c r="J63" s="38">
-        <v>52.876425659065603</v>
+      <c r="C63" s="36">
+        <v>16.478028745220499</v>
+      </c>
+      <c r="D63" s="36">
+        <v>55.3696963197511</v>
+      </c>
+      <c r="E63" s="36">
+        <v>111.748464681493</v>
+      </c>
+      <c r="F63" s="36">
+        <v>14.1510898301779</v>
+      </c>
+      <c r="G63" s="37">
+        <v>83.050114410470201</v>
+      </c>
+      <c r="H63" s="38">
+        <v>22384732.445953101</v>
+      </c>
+      <c r="I63" s="36">
+        <v>93.732414965055398</v>
+      </c>
+      <c r="J63" s="37">
+        <v>52.743707425910401</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="42">
-        <v>12.7880552103795</v>
-      </c>
-      <c r="D64" s="42">
-        <v>67.920412528601602</v>
-      </c>
-      <c r="E64" s="42">
-        <v>101.59076987498599</v>
-      </c>
-      <c r="F64" s="42">
-        <v>15.1540069435336</v>
-      </c>
-      <c r="G64" s="43">
-        <v>74.731790436634</v>
-      </c>
-      <c r="H64" s="44">
-        <v>2355157.3356389799</v>
-      </c>
-      <c r="I64" s="42">
-        <v>89.087329827940806</v>
-      </c>
-      <c r="J64" s="43">
-        <v>58.151674164794301</v>
+      <c r="C64" s="41">
+        <v>12.7892429192152</v>
+      </c>
+      <c r="D64" s="41">
+        <v>67.912171532378196</v>
+      </c>
+      <c r="E64" s="41">
+        <v>101.54801495708701</v>
+      </c>
+      <c r="F64" s="41">
+        <v>15.1524654305342</v>
+      </c>
+      <c r="G64" s="42">
+        <v>74.7389366047274</v>
+      </c>
+      <c r="H64" s="43">
+        <v>2340233.6180920899</v>
+      </c>
+      <c r="I64" s="41">
+        <v>89.098455592903505</v>
+      </c>
+      <c r="J64" s="42">
+        <v>58.188231226302499</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="40"/>
-      <c r="B65" s="45" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="46">
-        <v>11.984707429938499</v>
-      </c>
-      <c r="D65" s="46">
-        <v>42.999461304094403</v>
-      </c>
-      <c r="E65" s="46">
-        <v>107.035886433283</v>
-      </c>
-      <c r="F65" s="46">
-        <v>7.1886422304901298</v>
-      </c>
-      <c r="G65" s="47">
-        <v>69.998126348359406</v>
-      </c>
-      <c r="H65" s="48">
-        <v>24835177.014347501</v>
-      </c>
-      <c r="I65" s="46">
-        <v>93.820237520515704</v>
-      </c>
-      <c r="J65" s="47">
-        <v>41.1630940738021</v>
+      <c r="C65" s="45">
+        <v>11.859187355612701</v>
+      </c>
+      <c r="D65" s="45">
+        <v>42.890145361626701</v>
+      </c>
+      <c r="E65" s="45">
+        <v>106.921581690143</v>
+      </c>
+      <c r="F65" s="45">
+        <v>7.1683472827344401</v>
+      </c>
+      <c r="G65" s="46">
+        <v>69.724043109468894</v>
+      </c>
+      <c r="H65" s="47">
+        <v>24740022.874962501</v>
+      </c>
+      <c r="I65" s="45">
+        <v>93.729229347077194</v>
+      </c>
+      <c r="J65" s="46">
+        <v>40.992451796917699</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="40"/>
-      <c r="B66" s="49" t="s">
+      <c r="A66" s="39"/>
+      <c r="B66" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="50">
-        <v>13.938817736255199</v>
-      </c>
-      <c r="D66" s="50">
-        <v>51.181322551191201</v>
-      </c>
-      <c r="E66" s="50">
-        <v>106.945324356848</v>
-      </c>
-      <c r="F66" s="50">
-        <v>12.5556986994805</v>
-      </c>
-      <c r="G66" s="51">
-        <v>77.272888626297899</v>
-      </c>
-      <c r="H66" s="52">
-        <v>18728471.606093802</v>
-      </c>
-      <c r="I66" s="50">
-        <v>87.697600757626503</v>
-      </c>
-      <c r="J66" s="51">
-        <v>48.960085711622298</v>
+      <c r="C66" s="49">
+        <v>13.8423164929245</v>
+      </c>
+      <c r="D66" s="49">
+        <v>51.051723020906898</v>
+      </c>
+      <c r="E66" s="49">
+        <v>106.816249299384</v>
+      </c>
+      <c r="F66" s="49">
+        <v>12.510521014237201</v>
+      </c>
+      <c r="G66" s="50">
+        <v>77.051559272951295</v>
+      </c>
+      <c r="H66" s="51">
+        <v>18637014.203163002</v>
+      </c>
+      <c r="I66" s="49">
+        <v>87.566230620953206</v>
+      </c>
+      <c r="J66" s="50">
+        <v>48.798104427191902</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="40"/>
-      <c r="B67" s="45" t="s">
+      <c r="A67" s="39"/>
+      <c r="B67" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="46">
-        <v>1.5834812746609901</v>
-      </c>
-      <c r="D67" s="46">
-        <v>25.781092032052001</v>
-      </c>
-      <c r="E67" s="46">
-        <v>66.080196730892993</v>
-      </c>
-      <c r="F67" s="46">
-        <v>3.4622537196620198</v>
-      </c>
-      <c r="G67" s="47">
-        <v>41.3735063359617</v>
-      </c>
-      <c r="H67" s="48">
-        <v>1580824.5245155301</v>
-      </c>
-      <c r="I67" s="46">
-        <v>62.977698472344201</v>
-      </c>
-      <c r="J67" s="47">
-        <v>26.253038468298602</v>
+      <c r="C67" s="45">
+        <v>1.61542972380349</v>
+      </c>
+      <c r="D67" s="45">
+        <v>25.9431771827931</v>
+      </c>
+      <c r="E67" s="45">
+        <v>66.066247468235105</v>
+      </c>
+      <c r="F67" s="45">
+        <v>3.5665366072553399</v>
+      </c>
+      <c r="G67" s="46">
+        <v>41.476623154704598</v>
+      </c>
+      <c r="H67" s="47">
+        <v>1531201.3464831</v>
+      </c>
+      <c r="I67" s="45">
+        <v>62.926791416041297</v>
+      </c>
+      <c r="J67" s="46">
+        <v>26.160281719162001</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="40"/>
-      <c r="B68" s="45" t="s">
+      <c r="A68" s="39"/>
+      <c r="B68" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="46">
-        <v>1.68526169896082</v>
-      </c>
-      <c r="D68" s="46">
-        <v>38.121034552271901</v>
-      </c>
-      <c r="E68" s="46">
-        <v>94.892202862840605</v>
-      </c>
-      <c r="F68" s="46">
-        <v>2.48731614492766</v>
-      </c>
-      <c r="G68" s="47">
-        <v>46.072394796145403</v>
-      </c>
-      <c r="H68" s="48">
-        <v>654280.35084239999</v>
-      </c>
-      <c r="I68" s="46">
-        <v>63.946246851341598</v>
-      </c>
-      <c r="J68" s="47">
-        <v>30.375322571206102</v>
+      <c r="C68" s="45">
+        <v>1.7089945800686399</v>
+      </c>
+      <c r="D68" s="45">
+        <v>38.136124728492902</v>
+      </c>
+      <c r="E68" s="45">
+        <v>94.892464451885303</v>
+      </c>
+      <c r="F68" s="45">
+        <v>2.5271570946290001</v>
+      </c>
+      <c r="G68" s="46">
+        <v>46.150222457890898</v>
+      </c>
+      <c r="H68" s="47">
+        <v>657374.08305440401</v>
+      </c>
+      <c r="I68" s="45">
+        <v>63.970524436671802</v>
+      </c>
+      <c r="J68" s="46">
+        <v>30.3552338651597</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="40"/>
-      <c r="B69" s="45" t="s">
+      <c r="A69" s="39"/>
+      <c r="B69" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="46">
-        <v>0.67962811831887004</v>
-      </c>
-      <c r="D69" s="46">
-        <v>21.464538203449099</v>
-      </c>
-      <c r="E69" s="46">
-        <v>76.8400180565949</v>
-      </c>
-      <c r="F69" s="46">
-        <v>0.14273397910173999</v>
-      </c>
-      <c r="G69" s="47">
-        <v>23.703830660226199</v>
-      </c>
-      <c r="H69" s="48">
-        <v>4030113.71821529</v>
-      </c>
-      <c r="I69" s="46">
-        <v>55.3768555070736</v>
-      </c>
-      <c r="J69" s="47">
-        <v>29.449458538539499</v>
+      <c r="C69" s="45">
+        <v>0.69268508462268996</v>
+      </c>
+      <c r="D69" s="45">
+        <v>21.484289884427401</v>
+      </c>
+      <c r="E69" s="45">
+        <v>76.945323102631093</v>
+      </c>
+      <c r="F69" s="45">
+        <v>0.14248835237314</v>
+      </c>
+      <c r="G69" s="46">
+        <v>23.404425073974402</v>
+      </c>
+      <c r="H69" s="47">
+        <v>3982453.67518936</v>
+      </c>
+      <c r="I69" s="45">
+        <v>54.829900460258401</v>
+      </c>
+      <c r="J69" s="46">
+        <v>29.214691443909601</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="40"/>
-      <c r="B70" s="45" t="s">
+      <c r="A70" s="39"/>
+      <c r="B70" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="46">
-        <v>9.243463650139E-2</v>
-      </c>
-      <c r="D70" s="46">
-        <v>12.3846143177049</v>
-      </c>
-      <c r="E70" s="46">
-        <v>54.364251234968101</v>
-      </c>
-      <c r="F70" s="46">
-        <v>1.0450394837408301</v>
-      </c>
-      <c r="G70" s="47">
-        <v>19.266565555234401</v>
-      </c>
-      <c r="H70" s="48">
-        <v>30404.037372282401</v>
-      </c>
-      <c r="I70" s="46">
-        <v>46.156542962945899</v>
-      </c>
-      <c r="J70" s="47">
-        <v>19.508958803558698</v>
+      <c r="C70" s="45">
+        <v>9.1736025595370002E-2</v>
+      </c>
+      <c r="D70" s="45">
+        <v>12.3236820900339</v>
+      </c>
+      <c r="E70" s="45">
+        <v>54.188421665619899</v>
+      </c>
+      <c r="F70" s="45">
+        <v>1.03284827417166</v>
+      </c>
+      <c r="G70" s="46">
+        <v>19.266498016686601</v>
+      </c>
+      <c r="H70" s="47">
+        <v>30440.463403034999</v>
+      </c>
+      <c r="I70" s="45">
+        <v>45.890517783690299</v>
+      </c>
+      <c r="J70" s="46">
+        <v>19.471305824523899</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="40"/>
-      <c r="B71" s="45" t="s">
+      <c r="A71" s="39"/>
+      <c r="B71" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="46">
-        <v>0.18061398839612999</v>
-      </c>
-      <c r="D71" s="46">
-        <v>33.321562645597403</v>
-      </c>
-      <c r="E71" s="46">
-        <v>97.642146664971506</v>
-      </c>
-      <c r="F71" s="46">
-        <v>0.39019854570597001</v>
-      </c>
-      <c r="G71" s="47">
-        <v>42.891910810737599</v>
-      </c>
-      <c r="H71" s="48">
-        <v>287458.30307133298</v>
-      </c>
-      <c r="I71" s="46">
-        <v>59.0283227699774</v>
-      </c>
-      <c r="J71" s="47">
-        <v>27.3613187738077</v>
+      <c r="C71" s="45">
+        <v>0.18112029529014001</v>
+      </c>
+      <c r="D71" s="45">
+        <v>33.246303212165202</v>
+      </c>
+      <c r="E71" s="45">
+        <v>97.764653398272699</v>
+      </c>
+      <c r="F71" s="45">
+        <v>0.39244604874869998</v>
+      </c>
+      <c r="G71" s="46">
+        <v>42.947852152094597</v>
+      </c>
+      <c r="H71" s="47">
+        <v>286497.923517188</v>
+      </c>
+      <c r="I71" s="45">
+        <v>59.0015665785171</v>
+      </c>
+      <c r="J71" s="46">
+        <v>27.345011031190701</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="40"/>
-      <c r="B72" s="45" t="s">
+      <c r="A72" s="39"/>
+      <c r="B72" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="46">
-        <v>0.21949166168133999</v>
-      </c>
-      <c r="D72" s="46">
-        <v>20.593970034324599</v>
-      </c>
-      <c r="E72" s="46">
-        <v>58.562332307151998</v>
-      </c>
-      <c r="F72" s="46">
-        <v>0.22885164212600001</v>
-      </c>
-      <c r="G72" s="47">
-        <v>36.048942796946697</v>
-      </c>
-      <c r="H72" s="48">
-        <v>5551553.2958107498</v>
-      </c>
-      <c r="I72" s="46">
-        <v>64.227679693885605</v>
-      </c>
-      <c r="J72" s="47">
-        <v>23.3015371707572</v>
+      <c r="C72" s="45">
+        <v>0.21804670348763999</v>
+      </c>
+      <c r="D72" s="45">
+        <v>20.5734081585612</v>
+      </c>
+      <c r="E72" s="45">
+        <v>58.240374146964498</v>
+      </c>
+      <c r="F72" s="45">
+        <v>0.23338782418213</v>
+      </c>
+      <c r="G72" s="46">
+        <v>36.142402992885202</v>
+      </c>
+      <c r="H72" s="47">
+        <v>5576238.5388952503</v>
+      </c>
+      <c r="I72" s="45">
+        <v>64.151678946512305</v>
+      </c>
+      <c r="J72" s="46">
+        <v>23.014065908429298</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="40"/>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="46">
-        <v>0.89346218405275002</v>
-      </c>
-      <c r="D73" s="46">
-        <v>22.906141355059201</v>
-      </c>
-      <c r="E73" s="46">
-        <v>76.785010695409497</v>
-      </c>
-      <c r="F73" s="46">
-        <v>1.4502925241931099</v>
-      </c>
-      <c r="G73" s="47">
-        <v>37.918932213444101</v>
-      </c>
-      <c r="H73" s="48">
-        <v>113827.22095157301</v>
-      </c>
-      <c r="I73" s="46">
-        <v>50.836977317827703</v>
-      </c>
-      <c r="J73" s="47">
-        <v>25.961865549599199</v>
+      <c r="C73" s="45">
+        <v>0.88669557446004998</v>
+      </c>
+      <c r="D73" s="45">
+        <v>22.7479796871899</v>
+      </c>
+      <c r="E73" s="45">
+        <v>76.385521313276897</v>
+      </c>
+      <c r="F73" s="45">
+        <v>1.43915595767795</v>
+      </c>
+      <c r="G73" s="46">
+        <v>37.565098063162502</v>
+      </c>
+      <c r="H73" s="47">
+        <v>112057.106476125</v>
+      </c>
+      <c r="I73" s="45">
+        <v>50.543004529557301</v>
+      </c>
+      <c r="J73" s="46">
+        <v>25.8336049191537</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="39"/>
+      <c r="B74" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="46">
-        <v>5.9122996746485104</v>
-      </c>
-      <c r="D74" s="46">
-        <v>56.451203700785598</v>
-      </c>
-      <c r="E74" s="46">
-        <v>116.490893012933</v>
-      </c>
-      <c r="F74" s="46">
-        <v>8.5704574189277505</v>
-      </c>
-      <c r="G74" s="47">
-        <v>80.017629442809195</v>
-      </c>
-      <c r="H74" s="48">
-        <v>1186803.68298192</v>
-      </c>
-      <c r="I74" s="46">
-        <v>88.857723045139196</v>
-      </c>
-      <c r="J74" s="47">
-        <v>51.372818474362298</v>
+      <c r="C74" s="45">
+        <v>5.9304956285944197</v>
+      </c>
+      <c r="D74" s="45">
+        <v>56.6077112465779</v>
+      </c>
+      <c r="E74" s="45">
+        <v>116.598851343276</v>
+      </c>
+      <c r="F74" s="45">
+        <v>8.5926706900070506</v>
+      </c>
+      <c r="G74" s="46">
+        <v>80.014052354691799</v>
+      </c>
+      <c r="H74" s="47">
+        <v>1184280.13873857</v>
+      </c>
+      <c r="I74" s="45">
+        <v>88.881731899446393</v>
+      </c>
+      <c r="J74" s="46">
+        <v>51.355839804158599</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="40"/>
-      <c r="B75" s="49" t="s">
+      <c r="A75" s="39"/>
+      <c r="B75" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="50">
-        <v>0.31003572214774</v>
-      </c>
-      <c r="D75" s="50">
-        <v>12.7374029630683</v>
-      </c>
-      <c r="E75" s="50">
-        <v>49.165021308138002</v>
-      </c>
-      <c r="F75" s="50">
-        <v>0.42539317115905001</v>
-      </c>
-      <c r="G75" s="51">
-        <v>20.509385999420498</v>
-      </c>
-      <c r="H75" s="52">
-        <v>58549.260816046102</v>
-      </c>
-      <c r="I75" s="50">
-        <v>43.6724788143461</v>
-      </c>
-      <c r="J75" s="51">
+      <c r="C75" s="49">
+        <v>0.31078585640381001</v>
+      </c>
+      <c r="D75" s="49">
+        <v>12.8063489968607</v>
+      </c>
+      <c r="E75" s="49">
+        <v>49.181345087596299</v>
+      </c>
+      <c r="F75" s="49">
+        <v>0.42958890244505998</v>
+      </c>
+      <c r="G75" s="50">
+        <v>20.553678599444002</v>
+      </c>
+      <c r="H75" s="51">
+        <v>58347.621164409204</v>
+      </c>
+      <c r="I75" s="49">
+        <v>43.847348620812703</v>
+      </c>
+      <c r="J75" s="50">
         <v>17.348590000000002</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="40"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="39"/>
+      <c r="B76" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="46">
-        <v>5.9441196551391799</v>
-      </c>
-      <c r="D76" s="46">
-        <v>52.138540102243503</v>
-      </c>
-      <c r="E76" s="46">
-        <v>136.66596581965399</v>
-      </c>
-      <c r="F76" s="46">
-        <v>5.6014229936910702</v>
-      </c>
-      <c r="G76" s="47">
-        <v>84.141882187043905</v>
-      </c>
-      <c r="H76" s="48">
-        <v>12011148.139344599</v>
-      </c>
-      <c r="I76" s="46">
-        <v>91.451142459144094</v>
-      </c>
-      <c r="J76" s="47">
-        <v>43.668365357661401</v>
+      <c r="C76" s="45">
+        <v>5.9660611617880299</v>
+      </c>
+      <c r="D76" s="45">
+        <v>52.218320032452397</v>
+      </c>
+      <c r="E76" s="45">
+        <v>136.93990578615299</v>
+      </c>
+      <c r="F76" s="45">
+        <v>5.6379231830243901</v>
+      </c>
+      <c r="G76" s="46">
+        <v>84.244753387512205</v>
+      </c>
+      <c r="H76" s="47">
+        <v>11974701.9087025</v>
+      </c>
+      <c r="I76" s="45">
+        <v>91.4309081951792</v>
+      </c>
+      <c r="J76" s="46">
+        <v>43.783230947781703</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="40"/>
-      <c r="B77" s="45" t="s">
+      <c r="A77" s="39"/>
+      <c r="B77" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="46">
-        <v>13.782742017111699</v>
-      </c>
-      <c r="D77" s="46">
-        <v>70.532738265866897</v>
-      </c>
-      <c r="E77" s="46">
-        <v>104.228024956512</v>
-      </c>
-      <c r="F77" s="46">
-        <v>15.4880470560605</v>
-      </c>
-      <c r="G77" s="47">
-        <v>79.328034427307401</v>
-      </c>
-      <c r="H77" s="48">
-        <v>3222380.6553288102</v>
-      </c>
-      <c r="I77" s="46">
-        <v>90.629029298185898</v>
-      </c>
-      <c r="J77" s="47">
-        <v>62.279132291160899</v>
+      <c r="C77" s="45">
+        <v>13.7821179495773</v>
+      </c>
+      <c r="D77" s="45">
+        <v>70.522771528266503</v>
+      </c>
+      <c r="E77" s="45">
+        <v>104.151540638868</v>
+      </c>
+      <c r="F77" s="45">
+        <v>15.5002409443135</v>
+      </c>
+      <c r="G77" s="46">
+        <v>79.358077504134599</v>
+      </c>
+      <c r="H77" s="47">
+        <v>3205291.4352845</v>
+      </c>
+      <c r="I77" s="45">
+        <v>90.6270108594791</v>
+      </c>
+      <c r="J77" s="46">
+        <v>62.260362065215503</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="40"/>
-      <c r="B78" s="45" t="s">
+      <c r="A78" s="39"/>
+      <c r="B78" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C78" s="46">
-        <v>34.456363306497401</v>
-      </c>
-      <c r="D78" s="46">
-        <v>82.040329330349707</v>
-      </c>
-      <c r="E78" s="46">
-        <v>122.04407161911099</v>
-      </c>
-      <c r="F78" s="46">
-        <v>37.214813666275397</v>
-      </c>
-      <c r="G78" s="47">
-        <v>104.61507121629499</v>
-      </c>
-      <c r="H78" s="48">
-        <v>980371.82203019701</v>
-      </c>
-      <c r="I78" s="46">
+      <c r="C78" s="45">
+        <v>34.429031228912102</v>
+      </c>
+      <c r="D78" s="45">
+        <v>82.080206666229898</v>
+      </c>
+      <c r="E78" s="45">
+        <v>122.058172950968</v>
+      </c>
+      <c r="F78" s="45">
+        <v>37.143186718771901</v>
+      </c>
+      <c r="G78" s="46">
+        <v>104.78554191848301</v>
+      </c>
+      <c r="H78" s="47">
+        <v>981336.69814446406</v>
+      </c>
+      <c r="I78" s="45">
         <v>99</v>
       </c>
-      <c r="J78" s="47">
-        <v>84.538788854668496</v>
+      <c r="J78" s="46">
+        <v>84.516005493724293</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="40"/>
-      <c r="B79" s="49" t="s">
+      <c r="A79" s="39"/>
+      <c r="B79" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="50">
-        <v>31.327246742161101</v>
-      </c>
-      <c r="D79" s="50">
-        <v>83.826615052351897</v>
-      </c>
-      <c r="E79" s="50">
-        <v>123.580797782012</v>
-      </c>
-      <c r="F79" s="50">
-        <v>33.797992497013901</v>
-      </c>
-      <c r="G79" s="51">
-        <v>119.515685463941</v>
-      </c>
-      <c r="H79" s="52">
-        <v>5610588.3596059699</v>
-      </c>
-      <c r="I79" s="50">
-        <v>95.783143967510995</v>
-      </c>
-      <c r="J79" s="51">
-        <v>80.777025011943095</v>
+      <c r="C79" s="49">
+        <v>31.3690826808918</v>
+      </c>
+      <c r="D79" s="49">
+        <v>83.876376804163598</v>
+      </c>
+      <c r="E79" s="49">
+        <v>123.66473788721299</v>
+      </c>
+      <c r="F79" s="49">
+        <v>33.787482036854698</v>
+      </c>
+      <c r="G79" s="50">
+        <v>119.724839503724</v>
+      </c>
+      <c r="H79" s="51">
+        <v>5601938.8031815505</v>
+      </c>
+      <c r="I79" s="49">
+        <v>95.819005511608395</v>
+      </c>
+      <c r="J79" s="50">
+        <v>80.8652401011216</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="40"/>
-      <c r="B80" s="45" t="s">
+      <c r="A80" s="39"/>
+      <c r="B80" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="C80" s="46">
-        <v>1.17373392285516</v>
-      </c>
-      <c r="D80" s="46">
-        <v>36.897794819205302</v>
-      </c>
-      <c r="E80" s="46">
-        <v>87.8212271690779</v>
-      </c>
-      <c r="F80" s="46">
-        <v>1.6609675374095301</v>
-      </c>
-      <c r="G80" s="47">
-        <v>41.963999660740598</v>
-      </c>
-      <c r="H80" s="48">
-        <v>384685.705764029</v>
-      </c>
-      <c r="I80" s="46">
-        <v>66.762579237971494</v>
-      </c>
-      <c r="J80" s="47">
-        <v>34.733467289718</v>
+      <c r="C80" s="45">
+        <v>1.15608514695584</v>
+      </c>
+      <c r="D80" s="45">
+        <v>36.913587951349697</v>
+      </c>
+      <c r="E80" s="45">
+        <v>87.754418322827604</v>
+      </c>
+      <c r="F80" s="45">
+        <v>1.65162710356395</v>
+      </c>
+      <c r="G80" s="46">
+        <v>41.8669992465571</v>
+      </c>
+      <c r="H80" s="47">
+        <v>382811.62299573899</v>
+      </c>
+      <c r="I80" s="45">
+        <v>66.681343774697993</v>
+      </c>
+      <c r="J80" s="46">
+        <v>34.6446918556613</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="40"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="39"/>
+      <c r="B81" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="46">
-        <v>15.1853603294443</v>
-      </c>
-      <c r="D81" s="46">
-        <v>69.924550273336806</v>
-      </c>
-      <c r="E81" s="46">
-        <v>128.45879625782501</v>
-      </c>
-      <c r="F81" s="46">
-        <v>19.5266827966358</v>
-      </c>
-      <c r="G81" s="47">
-        <v>86.263984634108397</v>
-      </c>
-      <c r="H81" s="48">
-        <v>4055883.0114973001</v>
-      </c>
-      <c r="I81" s="46">
-        <v>75.620589026464998</v>
-      </c>
-      <c r="J81" s="47">
-        <v>63.284187451789101</v>
+      <c r="C81" s="45">
+        <v>14.767539230710501</v>
+      </c>
+      <c r="D81" s="45">
+        <v>68.568139934121504</v>
+      </c>
+      <c r="E81" s="45">
+        <v>126.301977116115</v>
+      </c>
+      <c r="F81" s="45">
+        <v>19.563528231341898</v>
+      </c>
+      <c r="G81" s="46">
+        <v>85.981679833148903</v>
+      </c>
+      <c r="H81" s="47">
+        <v>4027740.13624922</v>
+      </c>
+      <c r="I81" s="45">
+        <v>75.350604807322497</v>
+      </c>
+      <c r="J81" s="46">
+        <v>63.1429241391047</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="40"/>
-      <c r="B82" s="45" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="46">
-        <v>1.37427250952073</v>
-      </c>
-      <c r="D82" s="46">
-        <v>28.261832381767601</v>
-      </c>
-      <c r="E82" s="46">
-        <v>81.646672254732707</v>
-      </c>
-      <c r="F82" s="46">
-        <v>2.6265630102859499</v>
-      </c>
-      <c r="G82" s="47">
-        <v>44.6235103027185</v>
-      </c>
-      <c r="H82" s="48">
-        <v>997971.73140702501</v>
-      </c>
-      <c r="I82" s="46">
-        <v>60.5039413572798</v>
-      </c>
-      <c r="J82" s="47">
-        <v>26.657140434475899</v>
+      <c r="C82" s="45">
+        <v>1.39066981869073</v>
+      </c>
+      <c r="D82" s="45">
+        <v>28.2597797566346</v>
+      </c>
+      <c r="E82" s="45">
+        <v>81.565306111520897</v>
+      </c>
+      <c r="F82" s="45">
+        <v>2.65957947794162</v>
+      </c>
+      <c r="G82" s="46">
+        <v>44.551353973722897</v>
+      </c>
+      <c r="H82" s="47">
+        <v>976598.00083528203</v>
+      </c>
+      <c r="I82" s="45">
+        <v>60.369436779996498</v>
+      </c>
+      <c r="J82" s="46">
+        <v>26.5752297940608</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="40"/>
-      <c r="B83" s="49" t="s">
+      <c r="A83" s="39"/>
+      <c r="B83" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C83" s="50">
-        <v>16.679523705065598</v>
-      </c>
-      <c r="D83" s="50">
-        <v>54.314058296728298</v>
-      </c>
-      <c r="E83" s="50">
-        <v>110.499752329646</v>
-      </c>
-      <c r="F83" s="50">
-        <v>13.783661335763901</v>
-      </c>
-      <c r="G83" s="51">
-        <v>82.983956609482902</v>
-      </c>
-      <c r="H83" s="52">
-        <v>24451069.115759499</v>
-      </c>
-      <c r="I83" s="50">
-        <v>94.842267130198096</v>
-      </c>
-      <c r="J83" s="51">
-        <v>52.049057173203501</v>
+      <c r="C83" s="49">
+        <v>16.6221927358147</v>
+      </c>
+      <c r="D83" s="49">
+        <v>54.257368037479701</v>
+      </c>
+      <c r="E83" s="49">
+        <v>110.527295156935</v>
+      </c>
+      <c r="F83" s="49">
+        <v>13.7285646684072</v>
+      </c>
+      <c r="G83" s="50">
+        <v>82.812284083773093</v>
+      </c>
+      <c r="H83" s="51">
+        <v>24414072.4329389</v>
+      </c>
+      <c r="I83" s="49">
+        <v>94.816052476427998</v>
+      </c>
+      <c r="J83" s="50">
+        <v>51.897279232490902</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="40"/>
-      <c r="B84" s="45" t="s">
+      <c r="A84" s="39"/>
+      <c r="B84" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="46">
-        <v>0.10109938025876999</v>
-      </c>
-      <c r="D84" s="46">
-        <v>14.6801214039176</v>
-      </c>
-      <c r="E84" s="46">
-        <v>54.316072148089702</v>
-      </c>
-      <c r="F84" s="46">
-        <v>0.30666982753757999</v>
-      </c>
-      <c r="G84" s="47">
-        <v>24.243730839392001</v>
-      </c>
-      <c r="H84" s="48">
-        <v>34487.632982922398</v>
-      </c>
-      <c r="I84" s="46">
-        <v>48.797020241842603</v>
-      </c>
-      <c r="J84" s="47">
-        <v>16.185633701496499</v>
+      <c r="C84" s="45">
+        <v>0.10204200615762</v>
+      </c>
+      <c r="D84" s="45">
+        <v>14.6199298754926</v>
+      </c>
+      <c r="E84" s="45">
+        <v>54.405796925368499</v>
+      </c>
+      <c r="F84" s="45">
+        <v>0.31031184161637998</v>
+      </c>
+      <c r="G84" s="46">
+        <v>24.265148212981899</v>
+      </c>
+      <c r="H84" s="47">
+        <v>34478.686938446197</v>
+      </c>
+      <c r="I84" s="45">
+        <v>48.702788374969202</v>
+      </c>
+      <c r="J84" s="46">
+        <v>16.164138089210301</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="40"/>
-      <c r="B85" s="45" t="s">
+      <c r="A85" s="39"/>
+      <c r="B85" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="46">
-        <v>2.1953592888767299</v>
-      </c>
-      <c r="D85" s="46">
-        <v>22.277783019847099</v>
-      </c>
-      <c r="E85" s="46">
-        <v>56.306305966788102</v>
-      </c>
-      <c r="F85" s="46">
-        <v>5.40307124989332</v>
-      </c>
-      <c r="G85" s="47">
-        <v>16.826082904616101</v>
-      </c>
-      <c r="H85" s="48">
-        <v>163777.364090877</v>
-      </c>
-      <c r="I85" s="46">
-        <v>64.648099566644802</v>
-      </c>
-      <c r="J85" s="47">
-        <v>17.946945226257</v>
+      <c r="C85" s="45">
+        <v>2.3815273423019501</v>
+      </c>
+      <c r="D85" s="45">
+        <v>22.828513634014801</v>
+      </c>
+      <c r="E85" s="45">
+        <v>57.749406496542299</v>
+      </c>
+      <c r="F85" s="45">
+        <v>6.01564162033619</v>
+      </c>
+      <c r="G85" s="46">
+        <v>16.536231974763702</v>
+      </c>
+      <c r="H85" s="47">
+        <v>172282.035441641</v>
+      </c>
+      <c r="I85" s="45">
+        <v>65.919259358446496</v>
+      </c>
+      <c r="J85" s="46">
+        <v>18.0816824822281</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="40"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="39"/>
+      <c r="B86" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="46">
-        <v>2.10077686693832</v>
-      </c>
-      <c r="D86" s="46">
-        <v>40.076217433607198</v>
-      </c>
-      <c r="E86" s="46">
-        <v>97.820035590016801</v>
-      </c>
-      <c r="F86" s="46">
-        <v>2.8377133482613601</v>
-      </c>
-      <c r="G86" s="47">
-        <v>47.1411350680022</v>
-      </c>
-      <c r="H86" s="48">
-        <v>1180074.66778931</v>
-      </c>
-      <c r="I86" s="46">
-        <v>69.013688704066197</v>
-      </c>
-      <c r="J86" s="47">
-        <v>35.062968131970301</v>
+      <c r="C86" s="45">
+        <v>2.1204942567239802</v>
+      </c>
+      <c r="D86" s="45">
+        <v>40.152400573069798</v>
+      </c>
+      <c r="E86" s="45">
+        <v>97.745243362520995</v>
+      </c>
+      <c r="F86" s="45">
+        <v>2.86250410412097</v>
+      </c>
+      <c r="G86" s="46">
+        <v>47.164280359200397</v>
+      </c>
+      <c r="H86" s="47">
+        <v>1159126.30161205</v>
+      </c>
+      <c r="I86" s="45">
+        <v>68.941448535436706</v>
+      </c>
+      <c r="J86" s="46">
+        <v>34.957386626265198</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="40"/>
-      <c r="B87" s="45" t="s">
+      <c r="A87" s="39"/>
+      <c r="B87" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="46">
-        <v>3.1082010308930901</v>
-      </c>
-      <c r="D87" s="46">
-        <v>36.000914612025099</v>
-      </c>
-      <c r="E87" s="46">
-        <v>98.655693788907996</v>
-      </c>
-      <c r="F87" s="46">
-        <v>3.4420838652504</v>
-      </c>
-      <c r="G87" s="47">
-        <v>53.674295366138701</v>
-      </c>
-      <c r="H87" s="48">
-        <v>22445027.384356599</v>
-      </c>
-      <c r="I87" s="46">
-        <v>92.037631350357003</v>
-      </c>
-      <c r="J87" s="47">
-        <v>27.413708784244399</v>
+      <c r="C87" s="45">
+        <v>3.10518227607515</v>
+      </c>
+      <c r="D87" s="45">
+        <v>35.949190561820799</v>
+      </c>
+      <c r="E87" s="45">
+        <v>98.587260328485399</v>
+      </c>
+      <c r="F87" s="45">
+        <v>3.4694420511961499</v>
+      </c>
+      <c r="G87" s="46">
+        <v>53.593859533653301</v>
+      </c>
+      <c r="H87" s="47">
+        <v>22413157.2257495</v>
+      </c>
+      <c r="I87" s="45">
+        <v>92.006966488278806</v>
+      </c>
+      <c r="J87" s="46">
+        <v>27.396541266847802</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" s="40"/>
-      <c r="B88" s="45" t="s">
+      <c r="A88" s="39"/>
+      <c r="B88" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="46">
-        <v>2.85475549241752</v>
-      </c>
-      <c r="D88" s="46">
-        <v>52.361615620623198</v>
-      </c>
-      <c r="E88" s="46">
-        <v>153.75312361356501</v>
-      </c>
-      <c r="F88" s="46">
-        <v>4.1737397427233001</v>
-      </c>
-      <c r="G88" s="47">
-        <v>99.860621463995599</v>
-      </c>
-      <c r="H88" s="48">
-        <v>333570.47550367302</v>
-      </c>
-      <c r="I88" s="46">
-        <v>90.923336926064394</v>
-      </c>
-      <c r="J88" s="47">
-        <v>50.917800301188599</v>
+      <c r="C88" s="45">
+        <v>2.8477624483851902</v>
+      </c>
+      <c r="D88" s="45">
+        <v>52.354073748482598</v>
+      </c>
+      <c r="E88" s="45">
+        <v>153.59671473015999</v>
+      </c>
+      <c r="F88" s="45">
+        <v>4.19316958054746</v>
+      </c>
+      <c r="G88" s="46">
+        <v>99.823640777197596</v>
+      </c>
+      <c r="H88" s="47">
+        <v>332316.811057363</v>
+      </c>
+      <c r="I88" s="45">
+        <v>90.849044859066495</v>
+      </c>
+      <c r="J88" s="46">
+        <v>50.861088136589899</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="40"/>
-      <c r="B89" s="45" t="s">
+      <c r="A89" s="39"/>
+      <c r="B89" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="46">
-        <v>22.887699028254598</v>
-      </c>
-      <c r="D89" s="46">
-        <v>61.6426759383627</v>
-      </c>
-      <c r="E89" s="46">
-        <v>120.718064768106</v>
-      </c>
-      <c r="F89" s="46">
-        <v>14.312149749067901</v>
-      </c>
-      <c r="G89" s="47">
-        <v>90.624600739726702</v>
-      </c>
-      <c r="H89" s="48">
-        <v>24276750.244977798</v>
-      </c>
-      <c r="I89" s="46">
-        <v>95.130969296414094</v>
-      </c>
-      <c r="J89" s="47">
-        <v>64.673298524235605</v>
+      <c r="C89" s="45">
+        <v>22.8575071268484</v>
+      </c>
+      <c r="D89" s="45">
+        <v>61.652241367556499</v>
+      </c>
+      <c r="E89" s="45">
+        <v>120.80104392169299</v>
+      </c>
+      <c r="F89" s="45">
+        <v>14.2972382975928</v>
+      </c>
+      <c r="G89" s="46">
+        <v>90.621782544364194</v>
+      </c>
+      <c r="H89" s="47">
+        <v>24212651.886422899</v>
+      </c>
+      <c r="I89" s="45">
+        <v>95.042794416424599</v>
+      </c>
+      <c r="J89" s="46">
+        <v>64.664785172984097</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="40"/>
-      <c r="B90" s="49" t="s">
+      <c r="A90" s="39"/>
+      <c r="B90" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C90" s="50">
-        <v>34.395097562404501</v>
-      </c>
-      <c r="D90" s="50">
-        <v>87.471082292471607</v>
-      </c>
-      <c r="E90" s="50">
-        <v>129.013278220111</v>
-      </c>
-      <c r="F90" s="50">
-        <v>37.070367791827501</v>
-      </c>
-      <c r="G90" s="51">
-        <v>130.97895159487101</v>
-      </c>
-      <c r="H90" s="52">
-        <v>4244170.5054074498</v>
-      </c>
-      <c r="I90" s="50">
-        <v>98.874216259619899</v>
-      </c>
-      <c r="J90" s="51">
-        <v>86.011271297620198</v>
+      <c r="C90" s="49">
+        <v>34.393604266128897</v>
+      </c>
+      <c r="D90" s="49">
+        <v>87.486920191208796</v>
+      </c>
+      <c r="E90" s="49">
+        <v>128.999598071566</v>
+      </c>
+      <c r="F90" s="49">
+        <v>36.9945591918978</v>
+      </c>
+      <c r="G90" s="50">
+        <v>131.01257382806099</v>
+      </c>
+      <c r="H90" s="51">
+        <v>4331021.3227925599</v>
+      </c>
+      <c r="I90" s="49">
+        <v>98.865293058417905</v>
+      </c>
+      <c r="J90" s="50">
+        <v>86.035030211751703</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="40"/>
-      <c r="B91" s="45" t="s">
+      <c r="A91" s="39"/>
+      <c r="B91" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C91" s="46">
-        <v>0.26553791998656001</v>
-      </c>
-      <c r="D91" s="46">
-        <v>16.866877356720401</v>
-      </c>
-      <c r="E91" s="46">
-        <v>59.729157845202103</v>
-      </c>
-      <c r="F91" s="46">
-        <v>0.36652654340814</v>
-      </c>
-      <c r="G91" s="47">
-        <v>24.721041454494401</v>
-      </c>
-      <c r="H91" s="48">
-        <v>37625.388278413098</v>
-      </c>
-      <c r="I91" s="46">
-        <v>47.9498162958375</v>
-      </c>
-      <c r="J91" s="47">
-        <v>17.5655914651656</v>
+      <c r="C91" s="45">
+        <v>0.26785395006947998</v>
+      </c>
+      <c r="D91" s="45">
+        <v>16.817865878992801</v>
+      </c>
+      <c r="E91" s="45">
+        <v>59.799509278500402</v>
+      </c>
+      <c r="F91" s="45">
+        <v>0.36727382591996</v>
+      </c>
+      <c r="G91" s="46">
+        <v>24.672306321309001</v>
+      </c>
+      <c r="H91" s="47">
+        <v>37652.398932892502</v>
+      </c>
+      <c r="I91" s="45">
+        <v>47.818424507521698</v>
+      </c>
+      <c r="J91" s="46">
+        <v>17.5372652501012</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="40"/>
-      <c r="B92" s="45" t="s">
+      <c r="A92" s="39"/>
+      <c r="B92" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C92" s="46">
-        <v>3.4248235639514601</v>
-      </c>
-      <c r="D92" s="46">
-        <v>19.864163667947299</v>
-      </c>
-      <c r="E92" s="46">
-        <v>92.812957849476305</v>
-      </c>
-      <c r="F92" s="46">
-        <v>1.32711863730011</v>
-      </c>
-      <c r="G92" s="47">
-        <v>49.050560787616</v>
-      </c>
-      <c r="H92" s="48">
-        <v>1168789.3309869701</v>
-      </c>
-      <c r="I92" s="46">
-        <v>73.573329385540404</v>
-      </c>
-      <c r="J92" s="47">
-        <v>24.1968612493074</v>
+      <c r="C92" s="45">
+        <v>3.4457534835241801</v>
+      </c>
+      <c r="D92" s="45">
+        <v>19.837636707119799</v>
+      </c>
+      <c r="E92" s="45">
+        <v>92.653068571148196</v>
+      </c>
+      <c r="F92" s="45">
+        <v>1.32893744693469</v>
+      </c>
+      <c r="G92" s="46">
+        <v>49.077962129445197</v>
+      </c>
+      <c r="H92" s="47">
+        <v>1174906.68071475</v>
+      </c>
+      <c r="I92" s="45">
+        <v>73.597656928058996</v>
+      </c>
+      <c r="J92" s="46">
+        <v>24.115790150398698</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="40"/>
-      <c r="B93" s="45" t="s">
+      <c r="A93" s="39"/>
+      <c r="B93" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="46">
-        <v>6.33431434043609</v>
-      </c>
-      <c r="D93" s="46">
-        <v>29.0095463833655</v>
-      </c>
-      <c r="E93" s="46">
-        <v>101.694686160667</v>
-      </c>
-      <c r="F93" s="46">
-        <v>18.474957093821999</v>
-      </c>
-      <c r="G93" s="47">
-        <v>50.566006557577303</v>
-      </c>
-      <c r="H93" s="48">
-        <v>31210.201672932399</v>
-      </c>
-      <c r="I93" s="46">
-        <v>63.559024125845397</v>
-      </c>
-      <c r="J93" s="47">
-        <v>51.655869017054499</v>
+      <c r="C93" s="45">
+        <v>6.4338225760736103</v>
+      </c>
+      <c r="D93" s="45">
+        <v>29.4148651088374</v>
+      </c>
+      <c r="E93" s="45">
+        <v>102.32894894903301</v>
+      </c>
+      <c r="F93" s="45">
+        <v>18.914023087897601</v>
+      </c>
+      <c r="G93" s="46">
+        <v>51.321204467012898</v>
+      </c>
+      <c r="H93" s="47">
+        <v>31535.883581274898</v>
+      </c>
+      <c r="I93" s="45">
+        <v>63.511649936189599</v>
+      </c>
+      <c r="J93" s="46">
+        <v>52.338893395915001</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" s="40"/>
-      <c r="B94" s="45" t="s">
+      <c r="A94" s="39"/>
+      <c r="B94" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="46">
-        <v>6.2327229556581001</v>
-      </c>
-      <c r="D94" s="46">
-        <v>48.980186862325702</v>
-      </c>
-      <c r="E94" s="46">
-        <v>81.134176769314607</v>
-      </c>
-      <c r="F94" s="46">
-        <v>11.9905736369253</v>
-      </c>
-      <c r="G94" s="47">
-        <v>57.241880795093401</v>
-      </c>
-      <c r="H94" s="48">
-        <v>247054.49461045201</v>
-      </c>
-      <c r="I94" s="46">
-        <v>70.784788811465603</v>
-      </c>
-      <c r="J94" s="47">
-        <v>58.782711572777103</v>
+      <c r="C94" s="45">
+        <v>6.1942961540312398</v>
+      </c>
+      <c r="D94" s="45">
+        <v>48.566287233993997</v>
+      </c>
+      <c r="E94" s="45">
+        <v>80.855496839140201</v>
+      </c>
+      <c r="F94" s="45">
+        <v>12.059316601231499</v>
+      </c>
+      <c r="G94" s="46">
+        <v>57.305901526181302</v>
+      </c>
+      <c r="H94" s="47">
+        <v>246467.19974961001</v>
+      </c>
+      <c r="I94" s="45">
+        <v>70.898845930115002</v>
+      </c>
+      <c r="J94" s="46">
+        <v>58.868950575177202</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="40"/>
-      <c r="B95" s="45" t="s">
+      <c r="A95" s="39"/>
+      <c r="B95" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="46">
-        <v>0.16677481642972999</v>
-      </c>
-      <c r="D95" s="46">
-        <v>17.5992293836008</v>
-      </c>
-      <c r="E95" s="46">
-        <v>58.1666755600735</v>
-      </c>
-      <c r="F95" s="46">
-        <v>0.53604769032083999</v>
-      </c>
-      <c r="G95" s="47">
-        <v>31.268480914601898</v>
-      </c>
-      <c r="H95" s="48">
-        <v>35944.418082245298</v>
-      </c>
-      <c r="I95" s="46">
-        <v>56.104199417869097</v>
-      </c>
-      <c r="J95" s="47">
-        <v>16.708437663730201</v>
+      <c r="C95" s="45">
+        <v>0.17138731806608001</v>
+      </c>
+      <c r="D95" s="45">
+        <v>17.5992041562005</v>
+      </c>
+      <c r="E95" s="45">
+        <v>58.499014557389501</v>
+      </c>
+      <c r="F95" s="45">
+        <v>0.55039636100709</v>
+      </c>
+      <c r="G95" s="46">
+        <v>31.505292573488699</v>
+      </c>
+      <c r="H95" s="47">
+        <v>36367.575445330098</v>
+      </c>
+      <c r="I95" s="45">
+        <v>55.950807145904598</v>
+      </c>
+      <c r="J95" s="46">
+        <v>16.697953028109399</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="40"/>
-      <c r="B96" s="49" t="s">
+      <c r="A96" s="39"/>
+      <c r="B96" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="50">
-        <v>6.4307619299334897</v>
-      </c>
-      <c r="D96" s="50">
-        <v>43.418049872522801</v>
-      </c>
-      <c r="E96" s="50">
-        <v>104.185931073869</v>
-      </c>
-      <c r="F96" s="50">
-        <v>9.2825960205153901</v>
-      </c>
-      <c r="G96" s="51">
-        <v>60.470159716723103</v>
-      </c>
-      <c r="H96" s="52">
-        <v>497803.76439965499</v>
-      </c>
-      <c r="I96" s="50">
-        <v>72.492752201638893</v>
-      </c>
-      <c r="J96" s="51">
-        <v>40.664993418707297</v>
+      <c r="C96" s="49">
+        <v>6.3917069415941601</v>
+      </c>
+      <c r="D96" s="49">
+        <v>43.262914947973798</v>
+      </c>
+      <c r="E96" s="49">
+        <v>104.405144547215</v>
+      </c>
+      <c r="F96" s="49">
+        <v>9.2227177419580002</v>
+      </c>
+      <c r="G96" s="50">
+        <v>60.580649962116503</v>
+      </c>
+      <c r="H96" s="51">
+        <v>498298.877854652</v>
+      </c>
+      <c r="I96" s="49">
+        <v>72.452250181351104</v>
+      </c>
+      <c r="J96" s="50">
+        <v>40.562181078157899</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97" s="40"/>
-      <c r="B97" s="45" t="s">
+      <c r="A97" s="39"/>
+      <c r="B97" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="46">
-        <v>0.29511134481214002</v>
-      </c>
-      <c r="D97" s="46">
-        <v>22.800718647256701</v>
-      </c>
-      <c r="E97" s="46">
-        <v>71.553591163205994</v>
-      </c>
-      <c r="F97" s="46">
-        <v>0.42069269275716997</v>
-      </c>
-      <c r="G97" s="47">
-        <v>29.6634506918226</v>
-      </c>
-      <c r="H97" s="48">
-        <v>747943.52192042395</v>
-      </c>
-      <c r="I97" s="46">
-        <v>53.4832628789244</v>
-      </c>
-      <c r="J97" s="47">
-        <v>23.998757408203002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="40"/>
-      <c r="B98" s="45" t="s">
+      <c r="C97" s="45">
+        <v>0.29537701373517999</v>
+      </c>
+      <c r="D97" s="45">
+        <v>22.759858295734499</v>
+      </c>
+      <c r="E97" s="45">
+        <v>71.506849207206898</v>
+      </c>
+      <c r="F97" s="45">
+        <v>0.42235866854109</v>
+      </c>
+      <c r="G97" s="46">
+        <v>29.618762780503399</v>
+      </c>
+      <c r="H97" s="47">
+        <v>722340.04850568401</v>
+      </c>
+      <c r="I97" s="45">
+        <v>53.313468850154898</v>
+      </c>
+      <c r="J97" s="46">
+        <v>23.889107367080999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="39"/>
+      <c r="B98" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="46">
-        <v>4.29585387230519</v>
-      </c>
-      <c r="D98" s="46">
-        <v>28.352716050928901</v>
-      </c>
-      <c r="E98" s="46">
-        <v>88.5136492569642</v>
-      </c>
-      <c r="F98" s="46">
-        <v>7.3760807965376598</v>
-      </c>
-      <c r="G98" s="47">
-        <v>46.9076649838008</v>
-      </c>
-      <c r="H98" s="48">
-        <v>1742878.7456489201</v>
-      </c>
-      <c r="I98" s="46">
-        <v>75.128212457063796</v>
-      </c>
-      <c r="J98" s="47">
-        <v>29.797632552551001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="40"/>
-      <c r="B99" s="49" t="s">
+      <c r="C98" s="49">
+        <v>4.3390784749556301</v>
+      </c>
+      <c r="D98" s="49">
+        <v>28.442159539984502</v>
+      </c>
+      <c r="E98" s="49">
+        <v>88.614843200425796</v>
+      </c>
+      <c r="F98" s="49">
+        <v>7.4919949875811698</v>
+      </c>
+      <c r="G98" s="50">
+        <v>46.810180150635098</v>
+      </c>
+      <c r="H98" s="51">
+        <v>1745327.4087221101</v>
+      </c>
+      <c r="I98" s="49">
+        <v>75.076525538585301</v>
+      </c>
+      <c r="J98" s="50">
+        <v>29.875277893197701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C99" s="50">
-        <v>2.0107843501948199</v>
-      </c>
-      <c r="D99" s="50">
-        <v>19.317830933795101</v>
-      </c>
-      <c r="E99" s="50">
-        <v>61.826356193570398</v>
-      </c>
-      <c r="F99" s="50">
-        <v>3.4141601557641001</v>
-      </c>
-      <c r="G99" s="51">
-        <v>23.231013423161901</v>
-      </c>
-      <c r="H99" s="52">
-        <v>386003.834450981</v>
-      </c>
-      <c r="I99" s="50">
-        <v>38.791772943334699</v>
-      </c>
-      <c r="J99" s="51">
-        <v>23.472400875350701</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" s="53"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" s="56" t="s">
+      <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="57"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" s="56" t="s">
+      <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="57"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" s="56" t="s">
+      <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="57"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104" s="56" t="s">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="53"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B104" s="57"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105" s="56" t="s">
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="2"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B105" s="57"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="57"/>
-      <c r="C106" s="58"/>
-      <c r="D106" s="58"/>
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="57"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="59"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="58"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="I109" s="52"/>
+      <c r="J109" s="52"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="2"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="58"/>
-      <c r="D110" s="58"/>
-      <c r="E110" s="58"/>
-      <c r="F110" s="58"/>
-      <c r="G110" s="58"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" s="58"/>
-      <c r="D111" s="58"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="58"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="58"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
-      <c r="F113" s="58"/>
-      <c r="G113" s="58"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
+        <v>169</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="52"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="2"/>
-      <c r="C115" s="58"/>
-      <c r="D115" s="58"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="58"/>
-      <c r="G115" s="58"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
-    <hyperlink ref="B110" r:id="rId2"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5"/>
+    <hyperlink ref="B107" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{1532F1B8-2D43-4A35-A175-40C3772A6248}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F48BE6AA-4BF7-49F1-B4B5-6D4DE0ED2A6E}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{9DEC3F7C-5CE8-44A2-A73E-3714A868F24E}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{3499848A-13DC-4233-84B6-BB54F5E2CD9D}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{6DAC80CB-BF30-4633-892A-95BF84250BD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92C3F13F-8002-4E08-85B1-02AF58E586FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57933D6E-4CA3-4F4F-8707-894673ADD561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{59AF58BA-194E-45B1-9C03-7DE64098274C}"/>
+    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{1A49A18F-202A-4DD4-826C-E20779DCEC9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C7206E-17CA-4700-94BA-CC1457AECCFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE282B-8836-4079-BAA9-0601C3E63E70}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3334,7 +3334,7 @@
         <v>65.823687037037104</v>
       </c>
       <c r="E62" s="35">
-        <v>61.257901851851898</v>
+        <v>61.257901851851798</v>
       </c>
       <c r="F62" s="34">
         <v>4.1061129629629596</v>
@@ -3364,7 +3364,7 @@
         <v>77.871004316546802</v>
       </c>
       <c r="E63" s="39">
-        <v>72.118006474820206</v>
+        <v>72.118006474820106</v>
       </c>
       <c r="F63" s="38">
         <v>2.0268669064748202</v>
@@ -3910,7 +3910,7 @@
         <v>2.4087363636363599</v>
       </c>
       <c r="G81" s="44">
-        <v>15.6556045454545</v>
+        <v>15.655604545454599</v>
       </c>
       <c r="H81" s="44">
         <v>18.842654545454501</v>
@@ -4246,7 +4246,7 @@
         <v>39.341846153846198</v>
       </c>
       <c r="I92" s="45">
-        <v>95.735084615384594</v>
+        <v>95.735084615384693</v>
       </c>
       <c r="J92" s="45">
         <v>24.96</v>
@@ -4720,11 +4720,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{9A66D9A0-EE4F-425B-A154-ADDB24924236}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7291A4D0-ABC2-4BE3-828D-024D9B71E4F9}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{56ED7039-8C41-41A3-91BB-1382DD02D88A}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{49DD05E5-3618-4CBD-9A3C-2D7E244E158B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{8B3C0D11-62C1-49AD-830A-2698BBBD6748}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{86BDEEED-42FE-438C-83FB-DE2D47FD9250}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8B3688EC-5112-48FA-8776-71D389CF9E89}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{76C8BA25-79DA-469B-A487-77314CAB8CE3}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{8CFC81D8-B0FE-4B64-918C-62B18584F155}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{9884F7D8-B95B-4FB8-8ED4-35BE6CF27142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57933D6E-4CA3-4F4F-8707-894673ADD561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B89541F-0892-4F1C-8BAF-846409702B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{1A49A18F-202A-4DD4-826C-E20779DCEC9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C91D4ED1-8AE0-4F00-B047-86FB8D311D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab13'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab13'!$A$1:$J$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +261,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -339,7 +339,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -393,7 +393,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -534,7 +534,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : Division de la population du Département des affaires économiques et sociales des Nations Unies, World Population Prospects: the 2022 Revision, Global Hunger Index de Welthungerhilfe et Concern Worldwide (édition 2021).</t>
+    <t>Source : World Population Prospects : the 2022 Revision - United Nations Department Economic and Social Affairs Population Division : World Population Prospects : the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2021 edition).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE282B-8836-4079-BAA9-0601C3E63E70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461DC6F-12AE-4AA8-B4D1-BB24E739DE82}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2432,31 +2432,31 @@
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>55.4801</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>56.997500000000002</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>53.906100000000002</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="28">
         <v>4.5433000000000003</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="29">
         <v>63.7988</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>99.0899</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="30">
         <v>257.22210000000001</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3168,31 +3168,31 @@
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>52.887</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>53.322600000000001</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>52.455599999999997</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="19">
         <v>5.3094999999999999</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="20">
         <v>74.657799999999995</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>114.1703</v>
       </c>
-      <c r="I57" s="30">
+      <c r="I57" s="21">
         <v>288.99880000000002</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>28.3</v>
       </c>
     </row>
@@ -3538,28 +3538,28 @@
         <v>133</v>
       </c>
       <c r="C69" s="43">
-        <v>62.625833333333297</v>
+        <v>62.213457142857202</v>
       </c>
       <c r="D69" s="44">
-        <v>64.695049999999995</v>
+        <v>64.267200000000003</v>
       </c>
       <c r="E69" s="44">
-        <v>60.53145</v>
+        <v>60.1438285714286</v>
       </c>
       <c r="F69" s="43">
-        <v>4.4129833333333401</v>
+        <v>4.6690857142857203</v>
       </c>
       <c r="G69" s="44">
-        <v>38.319416666666697</v>
+        <v>40.538457142857197</v>
       </c>
       <c r="H69" s="44">
-        <v>54.408716666666699</v>
+        <v>58.247842857142899</v>
       </c>
       <c r="I69" s="45">
-        <v>153.54398333333299</v>
+        <v>160.00498571428599</v>
       </c>
       <c r="J69" s="45">
-        <v>25.4</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3778,28 +3778,28 @@
         <v>140</v>
       </c>
       <c r="C77" s="43">
-        <v>73.173866666666697</v>
+        <v>73.362863636363699</v>
       </c>
       <c r="D77" s="44">
-        <v>76.627399999999994</v>
+        <v>76.701327272727298</v>
       </c>
       <c r="E77" s="44">
-        <v>69.901941666666701</v>
+        <v>70.189490909090907</v>
       </c>
       <c r="F77" s="43">
-        <v>2.06206666666667</v>
+        <v>2.0467818181818198</v>
       </c>
       <c r="G77" s="44">
-        <v>13.580341666666699</v>
+        <v>13.384136363636401</v>
       </c>
       <c r="H77" s="44">
-        <v>16.332274999999999</v>
+        <v>16.1237909090909</v>
       </c>
       <c r="I77" s="45">
-        <v>57.309791666666698</v>
+        <v>53.9308727272727</v>
       </c>
       <c r="J77" s="45">
-        <v>8.9333333333333407</v>
+        <v>7.7272727272727302</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3868,28 +3868,28 @@
         <v>142</v>
       </c>
       <c r="C80" s="51">
-        <v>64.521439999999998</v>
+        <v>64.780749999999998</v>
       </c>
       <c r="D80" s="52">
-        <v>66.69135</v>
+        <v>67.058840000000004</v>
       </c>
       <c r="E80" s="52">
-        <v>62.460180000000001</v>
+        <v>62.605229999999999</v>
       </c>
       <c r="F80" s="51">
-        <v>4.0967099999999999</v>
+        <v>4.0200899999999997</v>
       </c>
       <c r="G80" s="52">
-        <v>40.324640000000002</v>
+        <v>39.23874</v>
       </c>
       <c r="H80" s="52">
-        <v>57.080500000000001</v>
+        <v>55.57246</v>
       </c>
       <c r="I80" s="53">
-        <v>137.65952999999999</v>
+        <v>134.48186000000001</v>
       </c>
       <c r="J80" s="53">
-        <v>22.637499999999999</v>
+        <v>21.828571428571401</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3928,28 +3928,28 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>63.276243181818202</v>
+        <v>63.217309090909097</v>
       </c>
       <c r="D82" s="44">
-        <v>65.626490909090904</v>
+        <v>65.542970454545497</v>
       </c>
       <c r="E82" s="44">
-        <v>60.984656818181797</v>
+        <v>60.9516909090909</v>
       </c>
       <c r="F82" s="43">
-        <v>4.10825</v>
+        <v>4.1256636363636403</v>
       </c>
       <c r="G82" s="44">
-        <v>40.8106636363636</v>
+        <v>41.057459090909099</v>
       </c>
       <c r="H82" s="44">
-        <v>58.032447727272697</v>
+        <v>58.375184090909102</v>
       </c>
       <c r="I82" s="45">
-        <v>147.331888636364</v>
+        <v>148.054086363636</v>
       </c>
       <c r="J82" s="45">
-        <v>24.394736842105299</v>
+        <v>24.494871794871798</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3988,28 +3988,28 @@
         <v>146</v>
       </c>
       <c r="C84" s="51">
-        <v>60.932447826086999</v>
+        <v>60.992775000000002</v>
       </c>
       <c r="D84" s="52">
-        <v>62.904230434782598</v>
+        <v>62.993337500000003</v>
       </c>
       <c r="E84" s="52">
-        <v>58.971382608695698</v>
+        <v>58.999366666666702</v>
       </c>
       <c r="F84" s="51">
-        <v>4.8834</v>
+        <v>4.8623791666666696</v>
       </c>
       <c r="G84" s="52">
-        <v>49.4569260869565</v>
+        <v>49.171525000000003</v>
       </c>
       <c r="H84" s="52">
-        <v>72.780799999999999</v>
+        <v>72.292095833333406</v>
       </c>
       <c r="I84" s="53">
-        <v>176.1266</v>
+        <v>174.822483333333</v>
       </c>
       <c r="J84" s="53">
-        <v>30.1</v>
+        <v>29.976190476190499</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4048,28 +4048,28 @@
         <v>148</v>
       </c>
       <c r="C86" s="43">
-        <v>64.635673913043505</v>
+        <v>64.738190909090903</v>
       </c>
       <c r="D86" s="44">
-        <v>67.037682608695704</v>
+        <v>67.1283590909091</v>
       </c>
       <c r="E86" s="44">
-        <v>62.327834782608697</v>
+        <v>62.449872727272698</v>
       </c>
       <c r="F86" s="43">
-        <v>3.76672608695652</v>
+        <v>3.7389000000000001</v>
       </c>
       <c r="G86" s="44">
-        <v>37.090265217391298</v>
+        <v>36.839490909090898</v>
       </c>
       <c r="H86" s="44">
-        <v>51.086500000000001</v>
+        <v>50.633527272727299</v>
       </c>
       <c r="I86" s="45">
-        <v>130.97033913043501</v>
+        <v>130.340454545455</v>
       </c>
       <c r="J86" s="45">
-        <v>20.047619047619101</v>
+        <v>19.675000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4078,28 +4078,28 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>70.203490322580706</v>
+        <v>70.363161290322594</v>
       </c>
       <c r="D87" s="44">
-        <v>73.057983870967803</v>
+        <v>73.163445161290298</v>
       </c>
       <c r="E87" s="44">
-        <v>67.492661290322602</v>
+        <v>67.688570967741896</v>
       </c>
       <c r="F87" s="43">
-        <v>2.6016645161290302</v>
+        <v>2.6050225806451599</v>
       </c>
       <c r="G87" s="44">
-        <v>22.428683870967699</v>
+        <v>22.300493548387099</v>
       </c>
       <c r="H87" s="44">
-        <v>27.375793548387101</v>
+        <v>27.224848387096799</v>
       </c>
       <c r="I87" s="45">
-        <v>70.205641935483897</v>
+        <v>68.569480645161306</v>
       </c>
       <c r="J87" s="45">
-        <v>16.837499999999999</v>
+        <v>16.552</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4138,28 +4138,28 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>73.303010869565199</v>
+        <v>72.896337777777802</v>
       </c>
       <c r="D89" s="44">
-        <v>76.637093478260894</v>
+        <v>76.271726666666694</v>
       </c>
       <c r="E89" s="44">
-        <v>70.149980434782606</v>
+        <v>69.729984444444497</v>
       </c>
       <c r="F89" s="43">
-        <v>1.99880652173913</v>
+        <v>2.0043822222222198</v>
       </c>
       <c r="G89" s="44">
-        <v>11.705347826086999</v>
+        <v>11.970595555555599</v>
       </c>
       <c r="H89" s="44">
-        <v>13.969260869565201</v>
+        <v>14.2350688888889</v>
       </c>
       <c r="I89" s="45">
-        <v>45.908621739130403</v>
+        <v>48.7849066666667</v>
       </c>
       <c r="J89" s="45">
-        <v>7.5189189189189198</v>
+        <v>7.5617647058823501</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4168,28 +4168,28 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>79.245227586206894</v>
+        <v>79.370791525423698</v>
       </c>
       <c r="D90" s="48">
-        <v>81.924206896551794</v>
+        <v>82.057852542372899</v>
       </c>
       <c r="E90" s="48">
-        <v>76.671753448275894</v>
+        <v>76.778615254237295</v>
       </c>
       <c r="F90" s="47">
-        <v>1.65571724137931</v>
+        <v>1.65551525423729</v>
       </c>
       <c r="G90" s="48">
-        <v>4.8192017241379297</v>
+        <v>4.8009627118644103</v>
       </c>
       <c r="H90" s="48">
-        <v>5.7355396551724196</v>
+        <v>5.7516694915254298</v>
       </c>
       <c r="I90" s="49">
-        <v>24.0478517241379</v>
+        <v>23.084274576271198</v>
       </c>
       <c r="J90" s="49">
-        <v>6.1</v>
+        <v>6.0428571428571498</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4288,25 +4288,25 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>71.678412499999993</v>
+        <v>71.436635483871001</v>
       </c>
       <c r="D94" s="44">
-        <v>74.544368750000004</v>
+        <v>74.354425806451601</v>
       </c>
       <c r="E94" s="44">
-        <v>69.064971874999998</v>
+        <v>68.771432258064607</v>
       </c>
       <c r="F94" s="43">
-        <v>2.379415625</v>
+        <v>2.3970709677419402</v>
       </c>
       <c r="G94" s="44">
-        <v>16.835228125</v>
+        <v>17.1926548387097</v>
       </c>
       <c r="H94" s="44">
-        <v>20.487893750000001</v>
+        <v>20.926122580645199</v>
       </c>
       <c r="I94" s="45">
-        <v>64.434890624999994</v>
+        <v>66.019241935483905</v>
       </c>
       <c r="J94" s="45">
         <v>15.409090909090899</v>
@@ -4378,28 +4378,28 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>61.116218918918896</v>
+        <v>61.089160526315801</v>
       </c>
       <c r="D97" s="52">
-        <v>63.170078378378399</v>
+        <v>63.125728947368401</v>
       </c>
       <c r="E97" s="52">
-        <v>59.112743243243301</v>
+        <v>59.101689473684203</v>
       </c>
       <c r="F97" s="51">
-        <v>4.5579189189189204</v>
+        <v>4.5708131578947402</v>
       </c>
       <c r="G97" s="52">
-        <v>48.518824324324299</v>
+        <v>48.728302631578998</v>
       </c>
       <c r="H97" s="52">
-        <v>69.837459459459495</v>
+        <v>70.263497368421099</v>
       </c>
       <c r="I97" s="53">
-        <v>170.81540810810799</v>
+        <v>171.511494736842</v>
       </c>
       <c r="J97" s="53">
-        <v>28.2870967741936</v>
+        <v>28.096875000000001</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4408,57 +4408,41 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>69.195878947368399</v>
+        <v>69.137342857142897</v>
       </c>
       <c r="D98" s="48">
-        <v>71.995257894736895</v>
+        <v>71.913014285714297</v>
       </c>
       <c r="E98" s="48">
-        <v>66.566405263157904</v>
+        <v>66.523342857142893</v>
       </c>
       <c r="F98" s="47">
-        <v>2.8442789473684198</v>
+        <v>2.8566190476190498</v>
       </c>
       <c r="G98" s="48">
-        <v>27.0215</v>
+        <v>27.778542857142899</v>
       </c>
       <c r="H98" s="48">
-        <v>33.463473684210499</v>
+        <v>34.2696857142857</v>
       </c>
       <c r="I98" s="49">
-        <v>84.130184210526295</v>
+        <v>83.8205047619048</v>
       </c>
       <c r="J98" s="49">
-        <v>21.856249999999999</v>
+        <v>21.766666666666701</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
-      <c r="C99" s="56">
-        <v>62.825153846153903</v>
-      </c>
-      <c r="D99" s="56">
-        <v>64.821153846153905</v>
-      </c>
-      <c r="E99" s="56">
-        <v>60.890384615384598</v>
-      </c>
-      <c r="F99" s="56">
-        <v>4.3949192307692302</v>
-      </c>
-      <c r="G99" s="56">
-        <v>48.333615384615399</v>
-      </c>
-      <c r="H99" s="56">
-        <v>71.516461538461499</v>
-      </c>
-      <c r="I99" s="56">
-        <v>172.58548269230801</v>
-      </c>
-      <c r="J99" s="56">
-        <v>35.68</v>
-      </c>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
       <c r="K99" s="56"/>
       <c r="L99" s="35"/>
       <c r="M99" s="56"/>
@@ -4720,11 +4704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{86BDEEED-42FE-438C-83FB-DE2D47FD9250}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8B3688EC-5112-48FA-8776-71D389CF9E89}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{76C8BA25-79DA-469B-A487-77314CAB8CE3}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{8CFC81D8-B0FE-4B64-918C-62B18584F155}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{9884F7D8-B95B-4FB8-8ED4-35BE6CF27142}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{09955EE1-9A37-4417-B775-053B8400509A}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{007D1D5D-7FAE-433F-8FE9-E8BF2D087A40}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{08C52889-88E3-4FF1-AC7B-341441E622B3}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{9A3A5D8B-6593-4D8F-88D3-9B1EC1162034}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{9757146A-1E14-402C-993F-6A83DA5C67B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B89541F-0892-4F1C-8BAF-846409702B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EFBDCA-AC82-41CB-A651-C9CA0BD55F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C91D4ED1-8AE0-4F00-B047-86FB8D311D3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{602E3C83-930F-41DD-905F-EF2A34298DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2461DC6F-12AE-4AA8-B4D1-BB24E739DE82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147F2B3-DFEE-4183-BB6F-19C02E099F49}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4704,11 +4704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{09955EE1-9A37-4417-B775-053B8400509A}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{007D1D5D-7FAE-433F-8FE9-E8BF2D087A40}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{08C52889-88E3-4FF1-AC7B-341441E622B3}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{9A3A5D8B-6593-4D8F-88D3-9B1EC1162034}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{9757146A-1E14-402C-993F-6A83DA5C67B6}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A2405E1D-D1AA-4807-8A66-6DCDC03AEF3D}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6A3DA14E-421B-41FE-8609-D50608C41DE7}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1E1541EB-ACCA-449B-B5EC-57D34F25C8F3}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{04D0499A-7FD3-4133-8C8F-534F88A7BFB1}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{AB7FFFC2-C115-49D2-AE80-C11A376860A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13EFBDCA-AC82-41CB-A651-C9CA0BD55F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{919116BD-1951-4F06-B069-435A88327D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{602E3C83-930F-41DD-905F-EF2A34298DBE}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{EB413E35-2B91-477E-B7A3-40E12156B874}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Source : World Population Prospects : the 2022 Revision - United Nations Department Economic and Social Affairs Population Division : World Population Prospects : the 2022 Revision - United Nations Department of Economic and Social Affairs Population Division, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2021 edition).</t>
+    <t>Source : World Population Prospects : the 2022 Revision - Division de la population du Département des affaires économiques et sociales des Nations Unies, Global Hunger Index de Welthungerhilfe et Concern Worldwide (édition 2021).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147F2B3-DFEE-4183-BB6F-19C02E099F49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BA2C2B-7925-4D9B-8CE8-7DBF6BF3B54C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4704,11 +4704,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A2405E1D-D1AA-4807-8A66-6DCDC03AEF3D}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{6A3DA14E-421B-41FE-8609-D50608C41DE7}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{1E1541EB-ACCA-449B-B5EC-57D34F25C8F3}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{04D0499A-7FD3-4133-8C8F-534F88A7BFB1}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{AB7FFFC2-C115-49D2-AE80-C11A376860A7}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6FB4CA07-D72A-4119-AB45-5DCCB69526B3}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8721E8D4-17AE-4479-B4BE-B93FA7E97A77}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{08DEEFF9-14CC-4F3E-AB71-BD0874595529}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{4149C39A-0F97-4D45-8C0C-FEF77412A830}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{BBE0AA07-1DE7-4A19-A482-76EC3029B1D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919116BD-1951-4F06-B069-435A88327D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDAA424-C67D-4A1E-83DE-B623E9556CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{EB413E35-2B91-477E-B7A3-40E12156B874}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{1AF40571-A277-4F2F-8827-D9F3F63759CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
   <si>
     <t>Tableau 13 : Indicateurs de santé de base</t>
   </si>
@@ -540,16 +540,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BA2C2B-7925-4D9B-8CE8-7DBF6BF3B54C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADDD868-2347-4D90-BD58-92C564C0050F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4605,7 +4608,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4623,7 +4626,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4640,7 +4643,9 @@
       <c r="O110" s="59"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -4657,7 +4662,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -4675,7 +4680,7 @@
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -4704,13 +4709,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{6FB4CA07-D72A-4119-AB45-5DCCB69526B3}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{8721E8D4-17AE-4479-B4BE-B93FA7E97A77}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{08DEEFF9-14CC-4F3E-AB71-BD0874595529}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{4149C39A-0F97-4D45-8C0C-FEF77412A830}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BBE0AA07-1DE7-4A19-A482-76EC3029B1D0}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A5AC025A-4494-41EF-AC4F-4BAAC66B3FB8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{92847B56-A263-41B7-B787-60D890F6A36E}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{785BF918-4987-4208-921C-32ABDAEE642F}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{1AC9608B-1187-4E1B-BE37-15DF050AAA38}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{F3A26508-0902-4BB5-86EA-376624D0C899}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{AD60D158-7376-4D6A-9268-9DEFD6A6AB7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab13.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CDAA424-C67D-4A1E-83DE-B623E9556CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20478E20-AAE1-4C1D-841E-A22CA603E0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{1AF40571-A277-4F2F-8827-D9F3F63759CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{D2BD87B2-5B9F-4CDD-BD7B-9A8B3DF7B0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab13'!$A$2:$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab13'!$A$1:$J$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADDD868-2347-4D90-BD58-92C564C0050F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E722AA-831F-47F0-8D5E-9284B1FD8637}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1386,15 +1386,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1407,7 +1407,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>23.43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>31.183333333333302</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>75</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>77</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>79</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>82</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>86</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>92</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>31</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>95</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>103</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>105</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>109</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>111</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>119</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>123</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="23" t="s">
         <v>125</v>
@@ -3325,7 +3325,7 @@
         <v>23.4933333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
         <v>126</v>
@@ -3355,7 +3355,7 @@
         <v>24.0891304347826</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32"/>
       <c r="B63" s="37" t="s">
         <v>127</v>
@@ -3385,7 +3385,7 @@
         <v>11.1986842105263</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="42" t="s">
         <v>128</v>
@@ -3415,7 +3415,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="33" t="s">
         <v>129</v>
@@ -3445,7 +3445,7 @@
         <v>16.815999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="46" t="s">
         <v>130</v>
@@ -3475,7 +3475,7 @@
         <v>16.059016393442601</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="50" t="s">
         <v>131</v>
@@ -3505,7 +3505,7 @@
         <v>25.225000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="33" t="s">
         <v>132</v>
@@ -3535,13 +3535,13 @@
         <v>24.731818181818198</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="33" t="s">
         <v>133</v>
       </c>
       <c r="C69" s="43">
-        <v>62.213457142857202</v>
+        <v>62.213457142857102</v>
       </c>
       <c r="D69" s="44">
         <v>64.267200000000003</v>
@@ -3565,7 +3565,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="33" t="s">
         <v>134</v>
@@ -3595,7 +3595,7 @@
         <v>29.9375</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="33" t="s">
         <v>135</v>
@@ -3625,7 +3625,7 @@
         <v>23.4933333333333</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="33" t="s">
         <v>136</v>
@@ -3655,7 +3655,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="33" t="s">
         <v>137</v>
@@ -3685,7 +3685,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="41"/>
       <c r="B74" s="33" t="s">
         <v>137</v>
@@ -3715,7 +3715,7 @@
         <v>11.074999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="46" t="s">
         <v>138</v>
@@ -3745,7 +3745,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41"/>
       <c r="B76" s="50" t="s">
         <v>139</v>
@@ -3775,7 +3775,7 @@
         <v>15.862500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="41"/>
       <c r="B77" s="33" t="s">
         <v>140</v>
@@ -3805,7 +3805,7 @@
         <v>7.7272727272727302</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="41"/>
       <c r="B78" s="33" t="s">
         <v>140</v>
@@ -3835,7 +3835,7 @@
         <v>3.01428571428572</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="46" t="s">
         <v>141</v>
@@ -3865,7 +3865,7 @@
         <v>6.29</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="50" t="s">
         <v>142</v>
@@ -3895,7 +3895,7 @@
         <v>21.828571428571401</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="33" t="s">
         <v>143</v>
@@ -3925,7 +3925,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="33" t="s">
         <v>144</v>
@@ -3955,7 +3955,7 @@
         <v>24.494871794871798</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="46" t="s">
         <v>145</v>
@@ -3985,7 +3985,7 @@
         <v>10.2827586206897</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
       <c r="B84" s="50" t="s">
         <v>146</v>
@@ -4015,7 +4015,7 @@
         <v>29.976190476190499</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="33" t="s">
         <v>147</v>
@@ -4045,7 +4045,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="33" t="s">
         <v>148</v>
@@ -4075,7 +4075,7 @@
         <v>19.675000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="33" t="s">
         <v>149</v>
@@ -4105,7 +4105,7 @@
         <v>16.552</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="33" t="s">
         <v>150</v>
@@ -4135,7 +4135,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="33" t="s">
         <v>151</v>
@@ -4165,7 +4165,7 @@
         <v>7.5617647058823501</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="46" t="s">
         <v>152</v>
@@ -4195,7 +4195,7 @@
         <v>6.0428571428571498</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="50" t="s">
         <v>153</v>
@@ -4225,7 +4225,7 @@
         <v>28.4321428571429</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="33" t="s">
         <v>154</v>
@@ -4255,7 +4255,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="33" t="s">
         <v>155</v>
@@ -4285,7 +4285,7 @@
         <v>16.8333333333333</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="33" t="s">
         <v>156</v>
@@ -4315,7 +4315,7 @@
         <v>15.409090909090899</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="33" t="s">
         <v>157</v>
@@ -4345,7 +4345,7 @@
         <v>27.228571428571399</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="46" t="s">
         <v>158</v>
@@ -4375,67 +4375,67 @@
         <v>10.846153846153801</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="50" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>61.089160526315801</v>
+        <v>61.5719214285714</v>
       </c>
       <c r="D97" s="52">
-        <v>63.125728947368401</v>
+        <v>63.618450000000003</v>
       </c>
       <c r="E97" s="52">
-        <v>59.101689473684203</v>
+        <v>59.568453571428599</v>
       </c>
       <c r="F97" s="51">
-        <v>4.5708131578947402</v>
+        <v>4.3557357142857098</v>
       </c>
       <c r="G97" s="52">
-        <v>48.728302631578998</v>
+        <v>47.112214285714302</v>
       </c>
       <c r="H97" s="52">
-        <v>70.263497368421099</v>
+        <v>67.454196428571507</v>
       </c>
       <c r="I97" s="53">
-        <v>171.511494736842</v>
+        <v>163.34814285714299</v>
       </c>
       <c r="J97" s="53">
-        <v>28.096875000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>25.819230769230799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="46" t="s">
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>69.137342857142897</v>
+        <v>69.959031249999995</v>
       </c>
       <c r="D98" s="48">
-        <v>71.913014285714297</v>
+        <v>72.6873875</v>
       </c>
       <c r="E98" s="48">
-        <v>66.523342857142893</v>
+        <v>67.407187500000006</v>
       </c>
       <c r="F98" s="47">
-        <v>2.8566190476190498</v>
+        <v>2.6333625000000001</v>
       </c>
       <c r="G98" s="48">
-        <v>27.778542857142899</v>
+        <v>25.366475000000001</v>
       </c>
       <c r="H98" s="48">
-        <v>34.2696857142857</v>
+        <v>30.750556249999999</v>
       </c>
       <c r="I98" s="49">
-        <v>83.8205047619048</v>
+        <v>76.702743749999996</v>
       </c>
       <c r="J98" s="49">
-        <v>21.766666666666701</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <v>18.771428571428601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -4452,7 +4452,7 @@
       <c r="N99" s="35"/>
       <c r="O99" s="35"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="N100" s="59"/>
       <c r="O100" s="59"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="N101" s="59"/>
       <c r="O101" s="59"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="N102" s="59"/>
       <c r="O102" s="59"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="N103" s="59"/>
       <c r="O103" s="59"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -4542,7 +4542,7 @@
       <c r="N104" s="59"/>
       <c r="O104" s="59"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -4557,7 +4557,7 @@
       <c r="N105" s="59"/>
       <c r="O105" s="59"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -4572,7 +4572,7 @@
       <c r="N106" s="59"/>
       <c r="O106" s="59"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="60" t="s">
         <v>166</v>
       </c>
@@ -4590,7 +4590,7 @@
       <c r="N107" s="59"/>
       <c r="O107" s="59"/>
     </row>
-    <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="60"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -4606,7 +4606,7 @@
       <c r="N108" s="59"/>
       <c r="O108" s="59"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="N109" s="59"/>
       <c r="O109" s="59"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="N110" s="59"/>
       <c r="O110" s="59"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="N111" s="59"/>
       <c r="O111" s="59"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="N112" s="59"/>
       <c r="O112" s="59"/>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="N113" s="59"/>
       <c r="O113" s="59"/>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -4709,12 +4709,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A5AC025A-4494-41EF-AC4F-4BAAC66B3FB8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{92847B56-A263-41B7-B787-60D890F6A36E}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{785BF918-4987-4208-921C-32ABDAEE642F}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{1AC9608B-1187-4E1B-BE37-15DF050AAA38}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{F3A26508-0902-4BB5-86EA-376624D0C899}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{AD60D158-7376-4D6A-9268-9DEFD6A6AB7A}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E2A5E9FC-D0C6-4309-91FA-A323367FA9CF}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{498A3FF2-EE9A-4E61-8FC3-D048456BD321}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{1A11AFCF-EFB7-4C09-BADD-1D7961EE8ABB}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{51482EE0-9559-4FAD-A861-EC5B3D88A2F7}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{F6086C47-C6C0-4C3C-A047-2125A4C8C1F8}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{35742F9B-CF7F-4FE3-98DC-A1A8B9C33D0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
